--- a/GenAICreateQuestionsFromParagraphs/SampleResults/macOS/sampleDurationResults.xlsx
+++ b/GenAICreateQuestionsFromParagraphs/SampleResults/macOS/sampleDurationResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bczernicki\source\repos\GenAICreateQuestionsFromParagraphs\GenAICreateQuestionsFromParagraphs\SampleResults\macOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041C03E-6575-4D21-AE56-A8C545FCF54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10684C-1F81-4A66-B5C9-5892262C05F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" xr2:uid="{3D69E190-3EF2-754E-8869-F8FDD486E5BF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" activeTab="1" xr2:uid="{3D69E190-3EF2-754E-8869-F8FDD486E5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
   <si>
     <t>gpt-35-turbo-1106</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Median</t>
-  </si>
-  <si>
-    <t>Mode</t>
   </si>
   <si>
     <t>Standard Deviation</t>
@@ -119,7 +116,13 @@
     <t>gpt-4-1106-preview-payg</t>
   </si>
   <si>
-    <t>Sum (time of job)</t>
+    <t>gpt-35-turbo-1106-payg-P90</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>Sum (of 100 requests)</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -231,11 +234,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,6 +400,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,302 +529,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-BACA-44A1-818E-C9D2ABF8370E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'GPT-4'!$A$2:$A$27</c:f>
@@ -777,34 +629,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -816,25 +668,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1097,6 +949,194 @@
           </c:ext>
         </c:extLst>
       </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GPT-4'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="548640" rIns="38100" bIns="0" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-ED47-40E5-BBF4-3CBD678E2E04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="548640" rIns="38100" bIns="0" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="0.25"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GPT-4'!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED47-40E5-BBF4-3CBD678E2E04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1385237040"/>
+        <c:axId val="1385235600"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="1385237040"/>
         <c:scaling>
@@ -1169,7 +1209,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1214,6 +1254,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1371,7 +1415,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'GPT-4'!$E$1</c:f>
+              <c:f>'GPT-4'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1392,152 +1436,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-06AE-4395-9E7B-0341D2E370EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-06AE-4395-9E7B-0341D2E370EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-06AE-4395-9E7B-0341D2E370EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-06AE-4395-9E7B-0341D2E370EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-06AE-4395-9E7B-0341D2E370EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-06AE-4395-9E7B-0341D2E370EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'GPT-4'!$A$2:$A$27</c:f>
@@ -1627,7 +1525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'GPT-4'!$E$1:$E$27</c:f>
+              <c:f>'GPT-4'!$F$1:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1638,22 +1536,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1944,6 +1842,153 @@
           </c:ext>
         </c:extLst>
       </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GPT-4'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="0" rIns="38100" bIns="0" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="0.60000000000000009"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GPT-4'!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAE5-441B-B402-C12B0BAF4312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1089246207"/>
+        <c:axId val="1089245247"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="1089246207"/>
         <c:scaling>
@@ -2016,7 +2061,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2061,6 +2106,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2148,36 +2197,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2751,6 +2770,132 @@
           </c:ext>
         </c:extLst>
       </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GPT3-5'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpt-35-turbo-1106-payg-P90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="lgDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GPT3-5'!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-05F6-4378-BEFC-E51F4C3CAE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1400420224"/>
+        <c:axId val="1400418304"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="1400420224"/>
         <c:scaling>
@@ -2868,6 +3013,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2938,6 +3087,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2997,7 +3147,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'GPT3-5'!$G$1</c:f>
+              <c:f>'GPT3-5'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3137,7 +3287,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'GPT3-5'!$G$2:$G$37</c:f>
+              <c:f>'GPT3-5'!$H$2:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -7436,13 +7586,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>707486</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>84935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>262986</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>122611</xdr:rowOff>
@@ -7472,13 +7622,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>703252</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>148955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>258752</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>186632</xdr:rowOff>
@@ -7513,14 +7663,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3401</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>363991</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>23130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>183696</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>102051</xdr:rowOff>
     </xdr:to>
@@ -7549,14 +7699,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3399</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>363989</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>2720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>183695</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>176891</xdr:rowOff>
     </xdr:to>
@@ -7587,6 +7737,53 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50869</cdr:x>
+      <cdr:y>0.04479</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6453</cdr:x>
+      <cdr:y>0.11415</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2B7C33-B129-8C4B-8687-3815C3E6E6F8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2888116" y="153763"/>
+          <a:ext cx="775608" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>P90</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7964,15 +8161,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202A859E-2170-114F-A3C6-EFC3AA41D3AC}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.8125" customWidth="1"/>
+    <col min="1" max="1" width="18.4375" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17.3125" customWidth="1"/>
     <col min="4" max="4" width="13.3125" customWidth="1"/>
@@ -7993,15 +8190,15 @@
       </c>
       <c r="D1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="6"/>
     </row>
@@ -8103,68 +8300,68 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="10">
+        <v>0.49482220634694851</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="10">
+        <v>0.41291690813592125</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="10">
+        <v>4.43934904477545</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="9" t="e">
-        <v>#N/A</v>
+      <c r="I6" s="10">
+        <v>1.1249625690260856</v>
       </c>
       <c r="K6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" t="e">
-        <v>#N/A</v>
+      <c r="L6">
+        <v>1.4972164240436201</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
-        <v>0.49482220634694851</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="9">
+        <v>0.24484901589406208</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10">
-        <v>0.41291690813592125</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="9">
+        <v>0.17050037302452883</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10">
-        <v>4.43934904477545</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="9">
+        <v>19.707819941348703</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="10">
-        <v>1.1249625690260856</v>
+      <c r="I7" s="9">
+        <v>1.2655407817097704</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
       </c>
       <c r="L7">
-        <v>1.4972164240436201</v>
+        <v>2.2416570204259654</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8172,31 +8369,31 @@
         <v>9</v>
       </c>
       <c r="B8" s="9">
-        <v>0.24484901589406208</v>
+        <v>0.52231307898131218</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="9">
-        <v>0.17050037302452883</v>
+        <v>-0.56434713680001058</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="9">
-        <v>19.707819941348703</v>
+        <v>1.9137587949976269</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="9">
-        <v>1.2655407817097704</v>
+        <v>2.6137852855512755</v>
       </c>
       <c r="K8" t="s">
         <v>9</v>
       </c>
       <c r="L8">
-        <v>2.2416570204259654</v>
+        <v>8.5842757882989531</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8204,31 +8401,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>0.52231307898131218</v>
+        <v>0.81305124684382379</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="9">
-        <v>-0.56434713680001058</v>
+        <v>0.1134860912327932</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="9">
-        <v>1.9137587949976269</v>
+        <v>1.5260927977788079</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="9">
-        <v>2.6137852855512755</v>
+        <v>1.5687206987834401</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
       <c r="L9">
-        <v>8.5842757882989531</v>
+        <v>2.3616290678074181</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8236,63 +8433,64 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>0.81305124684382379</v>
+        <v>2.3989515999999997</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="9">
-        <v>0.1134860912327932</v>
+        <v>1.8945508000000002</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="9">
-        <v>1.5260927977788079</v>
+        <v>19.2430789</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="9">
-        <v>1.5687206987834401</v>
+        <v>5.5489025999999999</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10">
-        <v>2.3616290678074181</v>
+        <v>12.063437499999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9">
-        <v>2.3989515999999997</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="10">
+        <v>0.43290729999999999</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9">
-        <v>1.8945508000000002</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="10">
+        <v>0.2110523</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="9">
-        <v>19.2430789</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="10">
+        <v>1.6614438</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="9">
-        <v>5.5489025999999999</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="I11" s="10">
+        <v>0.75761449999999997</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L11">
-        <v>12.063437499999999</v>
+      <c r="L11" s="7">
+        <v>0.80460739999999997</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8300,128 +8498,95 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <v>0.43290729999999999</v>
+        <v>2.8318588999999998</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="10">
-        <v>0.2110523</v>
+        <v>2.1056031000000002</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="10">
-        <v>1.6614438</v>
+        <v>20.904522700000001</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="10">
-        <v>0.75761449999999997</v>
+        <v>6.3065170999999998</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="7">
-        <v>0.80460739999999997</v>
+        <v>12.868044899999999</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9">
+        <v>114.20632749999996</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9">
+        <v>100.21668220000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="9">
+        <v>621.7139024999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="9">
+        <v>250.89265569999992</v>
+      </c>
+      <c r="K13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10">
-        <v>2.8318588999999998</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10">
-        <v>2.1056031000000002</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="10">
-        <v>20.904522700000001</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="10">
-        <v>6.3065170999999998</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="7">
-        <v>12.868044899999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="9">
-        <v>114.20632749999996</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="9">
-        <v>100.21668220000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="9">
-        <v>621.7139024999999</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="9">
-        <v>250.89265569999992</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L13">
+        <v>1073.4370789999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.149999999999999" thickBot="1">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L14">
-        <v>1073.4370789999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.149999999999999" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="B14" s="5">
         <v>100</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5">
         <v>100</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5">
         <v>100</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="5">
         <v>100</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="K14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="5">
         <v>400</v>
       </c>
     </row>
@@ -8432,38 +8597,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E6C42B-7D81-C345-B5B5-08C788A006F8}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="25.5625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.3125" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="4" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+    <col min="8" max="14" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8474,15 +8653,22 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(B:B, A2)</f>
+        <f>COUNTIF(B:B, A2)/100</f>
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>COUNTIF(C:C, A2)</f>
+      <c r="F2">
+        <f>COUNTIF(C:C, A2)/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8493,15 +8679,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>COUNTIF(B:B, A3)</f>
+        <f t="shared" ref="D3:D27" si="0">COUNTIF(B:B, A3)/100</f>
         <v>0</v>
       </c>
-      <c r="E3">
-        <f>COUNTIF(C:C, A3)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f t="shared" ref="F3:F27" si="1">COUNTIF(C:C, A3)/100</f>
+        <v>0.09</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8512,15 +8705,22 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D27" si="0">COUNTIF(B:B, A4)</f>
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E27" si="1">COUNTIF(C:C, A4)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8532,14 +8732,21 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E5">
+        <v>0.21</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.22</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8551,14 +8758,21 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E6">
+        <v>0.16</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8570,14 +8784,24 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E7">
+        <v>0.06</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.03</v>
+      </c>
+      <c r="G7">
+        <v>0.65</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8589,14 +8813,21 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E8">
+        <v>0.09</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8608,14 +8839,21 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E9">
+        <v>0.06</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8627,14 +8865,21 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E10">
+        <v>0.04</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8646,14 +8891,21 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8665,14 +8917,21 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E12">
+        <v>0.04</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8684,14 +8943,21 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E13">
+        <v>0.04</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8705,12 +8971,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8724,12 +8997,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8743,12 +9023,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8760,14 +9047,21 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17">
+        <v>0.01</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8779,14 +9073,21 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E18">
+        <v>0.02</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8798,14 +9099,24 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E19">
+        <v>0.25</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8817,14 +9128,21 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E20">
+        <v>0.02</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8838,12 +9156,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8855,14 +9180,21 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E22">
+        <v>0.01</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8874,14 +9206,21 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E23">
+        <v>0.01</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8895,12 +9234,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8914,12 +9260,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8933,12 +9286,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8952,36 +9312,67 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="20"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="B30" s="1">
         <v>4</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="B31" s="1">
         <v>3</v>
       </c>
@@ -8989,7 +9380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:14">
       <c r="B32" s="1">
         <v>3</v>
       </c>
@@ -9557,10 +9948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1479317-8793-42EB-8112-8D25209E1C4C}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9571,33 +9962,37 @@
     <col min="4" max="4" width="25.6875" customWidth="1"/>
     <col min="5" max="5" width="29.125" customWidth="1"/>
     <col min="6" max="6" width="23.6875" customWidth="1"/>
-    <col min="7" max="7" width="21.6875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.4375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -9619,12 +10014,12 @@
         <f>COUNTIF(D:D,A2)</f>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>COUNTIF(E:E, A2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -9646,12 +10041,12 @@
         <f t="shared" ref="F3:F37" si="1">COUNTIF(D:D,A3)</f>
         <v>0</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G37" si="2">COUNTIF(E:E, A3)</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H37" si="2">COUNTIF(E:E, A3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -9673,12 +10068,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -9700,12 +10095,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -9727,12 +10122,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -9754,12 +10149,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -9781,12 +10176,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -9808,12 +10203,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -9835,12 +10230,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -9862,12 +10257,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -9889,12 +10284,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -9916,12 +10311,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -9943,12 +10338,12 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -9970,12 +10365,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1.4</v>
       </c>
@@ -9997,12 +10392,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -10024,12 +10419,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1.6</v>
       </c>
@@ -10051,12 +10446,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1.7</v>
       </c>
@@ -10078,12 +10473,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>1.8</v>
       </c>
@@ -10105,12 +10500,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1.9</v>
       </c>
@@ -10132,12 +10527,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2</v>
       </c>
@@ -10160,11 +10555,14 @@
         <v>1</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2.1</v>
       </c>
@@ -10186,12 +10584,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -10213,12 +10611,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
@@ -10240,12 +10638,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2.4</v>
       </c>
@@ -10267,12 +10665,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -10294,12 +10692,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2.6</v>
       </c>
@@ -10321,12 +10719,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2.7</v>
       </c>
@@ -10348,12 +10746,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2.8</v>
       </c>
@@ -10375,12 +10773,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2.9</v>
       </c>
@@ -10402,12 +10800,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>3</v>
       </c>
@@ -10429,12 +10827,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>3.1</v>
       </c>
@@ -10456,12 +10854,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>3.2</v>
       </c>
@@ -10483,12 +10881,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>3.3</v>
       </c>
@@ -10510,12 +10908,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>3.4</v>
       </c>
@@ -10537,12 +10935,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>3.5</v>
       </c>
@@ -10564,12 +10962,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="B38" s="1">
         <v>0.48383599999999999</v>
       </c>
@@ -10585,7 +10983,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="B39" s="1">
         <v>1.4850752</v>
       </c>
@@ -10601,7 +10999,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="B40" s="1">
         <v>0.52325759999999999</v>
       </c>
@@ -10617,7 +11015,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="B41" s="1">
         <v>0.53028370000000002</v>
       </c>
@@ -10633,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="B42" s="1">
         <v>0.55262299999999998</v>
       </c>
@@ -10649,7 +11047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="B43" s="1">
         <v>1.5923670000000001</v>
       </c>
@@ -10665,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="B44" s="1">
         <v>0.60108019999999995</v>
       </c>
@@ -10681,7 +11079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="B45" s="1">
         <v>0.62007730000000005</v>
       </c>
@@ -10697,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="B46" s="1">
         <v>1.6762733999999999</v>
       </c>
@@ -10713,7 +11111,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="B47" s="1">
         <v>0.70408890000000002</v>
       </c>
@@ -10729,7 +11127,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="B48" s="1">
         <v>0.71766490000000005</v>
       </c>
@@ -11632,7 +12030,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/GenAICreateQuestionsFromParagraphs/SampleResults/macOS/sampleDurationResults.xlsx
+++ b/GenAICreateQuestionsFromParagraphs/SampleResults/macOS/sampleDurationResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bczernicki\source\repos\GenAICreateQuestionsFromParagraphs\GenAICreateQuestionsFromParagraphs\SampleResults\macOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10684C-1F81-4A66-B5C9-5892262C05F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F33EAD-0843-4A46-9512-626E3668A82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" activeTab="1" xr2:uid="{3D69E190-3EF2-754E-8869-F8FDD486E5BF}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,7 +400,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -475,26 +474,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1023,10 +1002,6 @@
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1077,10 +1052,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1144,6 +1115,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elapsed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1209,6 +1203,29 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequencey</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1252,41 +1269,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1382,26 +1364,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1915,10 +1877,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1996,6 +1954,28 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Elapsed Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2061,6 +2041,29 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2104,41 +2107,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4948,86 +4916,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6576,1012 +6464,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8600,7 +7482,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8609,7 +7491,6 @@
     <col min="3" max="3" width="22.3125" customWidth="1"/>
     <col min="4" max="5" width="30.625" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
-    <col min="8" max="14" width="11" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -8634,13 +7515,13 @@
       <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
@@ -8660,13 +7541,13 @@
         <f>COUNTIF(C:C, A2)/100</f>
         <v>0</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
@@ -8686,13 +7567,13 @@
         <f t="shared" ref="F3:F27" si="1">COUNTIF(C:C, A3)/100</f>
         <v>0.09</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
@@ -8712,13 +7593,13 @@
         <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
@@ -8738,13 +7619,13 @@
         <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
@@ -8764,13 +7645,13 @@
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
@@ -8793,13 +7674,13 @@
       <c r="G7">
         <v>0.65</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
@@ -8819,13 +7700,13 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
@@ -8845,13 +7726,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
@@ -8871,13 +7752,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
@@ -8897,13 +7778,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
@@ -8923,13 +7804,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
@@ -8949,13 +7830,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
@@ -8975,13 +7856,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
@@ -9001,13 +7882,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
@@ -9027,13 +7908,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
@@ -9053,13 +7934,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
@@ -9079,13 +7960,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
@@ -9108,13 +7989,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
@@ -9134,13 +8015,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
@@ -9160,13 +8041,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
@@ -9186,13 +8067,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
@@ -9212,13 +8093,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
@@ -9238,13 +8119,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
@@ -9264,13 +8145,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
@@ -9290,13 +8171,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
@@ -9316,13 +8197,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="1">
@@ -9331,13 +8212,13 @@
       <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14">
       <c r="B29" s="1">
@@ -9349,13 +8230,13 @@
       <c r="G29" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14">
       <c r="B30" s="1">
@@ -9364,13 +8245,13 @@
       <c r="C30" s="1">
         <v>4</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="1">

--- a/GenAICreateQuestionsFromParagraphs/SampleResults/macOS/sampleDurationResults.xlsx
+++ b/GenAICreateQuestionsFromParagraphs/SampleResults/macOS/sampleDurationResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10904"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bczernicki\source\repos\GenAICreateQuestionsFromParagraphs\GenAICreateQuestionsFromParagraphs\SampleResults\macOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart/Desktop/Screenshots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F33EAD-0843-4A46-9512-626E3668A82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{513469F5-F147-BE4B-BA79-C8AFB95DD4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" activeTab="1" xr2:uid="{3D69E190-3EF2-754E-8869-F8FDD486E5BF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25640" windowHeight="15560" xr2:uid="{3D69E190-3EF2-754E-8869-F8FDD486E5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
   <si>
     <t>gpt-35-turbo-1106</t>
   </si>
@@ -124,6 +124,18 @@
   <si>
     <t>Sum (of 100 requests)</t>
   </si>
+  <si>
+    <t>125-PAYGO-gpt-4o-2024-05-13-global</t>
+  </si>
+  <si>
+    <t>125-PTU-GPT-4o-2024-05-13</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>125-PTU50-GPT-4o-2024-05-13</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +179,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,6 +187,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,6 +210,23 @@
       <sz val="12"/>
       <color theme="7"/>
       <name val="Halvecia"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,6 +440,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4835,6 +4873,1412 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PTU vs PAYG: GPT-4o-2024-05-13</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>125-PAYGO-gpt-4o-2024-05-13-global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$G$2:$G$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="175"/>
+                <c:pt idx="0">
+                  <c:v>1.3765270000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3785917000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3790837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5029432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50464889999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5070545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5793919999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58457479999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6586856000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74739270000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7479613000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82231540000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8271697</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90660649999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97924920000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98470679999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9851825000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9856654</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0906096999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0910344000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0977481</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0983293000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0989148000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2121857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2126117999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2133119000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2138367000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2142900000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3236403000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4233344000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4342521000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4346532999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4353937999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4360018999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.43638680000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5418924000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6424934000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6479151999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65076310000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6511699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65199580000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6534808000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7579545000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.87493290000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8758184</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.87677760000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.993644</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.9939819999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9986621</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99891269999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1210941999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1214283</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.1259678000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1261843</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1264528</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1268171</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1330521</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.2610983999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2656927</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2666599000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2671687</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2674308000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2677665</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2680168999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.3909429000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3911659999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3913682000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3918666</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3922288</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3924666000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.5191460000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5273604000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5278562</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5282062999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6453392</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6520131</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6522969000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6526864000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6534021000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.65369319999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.65413049999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6546329</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.77558269999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.77779359999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.77827729999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7787310000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.77972209999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.78036760000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.78124450000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8984873</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90067609999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9046985999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.90487830000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.90575629999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0606841</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0630599999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.063288</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2182346000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.2208342999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2223763999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2225349999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2227171999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.2228627999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2231867000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2234665</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.37399</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.3783741</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.3788286000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3791987999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3792135999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3797478000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.3797614</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.3798433999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3798937</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3799509000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.379975</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.3801866</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.4478375000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.46716530000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4718713999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4944772</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.545617</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.5462578</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.5636713</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.5929802</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.6044252000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.6210817</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.6311944</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.67174909999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.6742427</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.6949342000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.6992803999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.7209492000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.7901342</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.79882719999999996</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.82846089999999994</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.8387844</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.3332660000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.4142725</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.4482105999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.6404040000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.7609446000000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.8195361000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.8347045</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.0335032000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.1124094000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.8375050000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.4442096000000006</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.7664019</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.8954409999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.77045220000000003</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.1479961000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.2563732000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.2772547999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.3267321999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.3354862000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.3493394000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.3854735</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.4054381</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.4479322999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.4946402000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.5129751</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.5211847000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.5254654000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.5538677000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.7192506000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.9218808000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.0376874</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.5451359</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.7517782999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.0055630999999998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.1257748000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.5406462999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.6232093999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.2746662999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17BF-47C8-B7EA-16C48D3AAB19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>125-PTU-GPT-4o-2024-05-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$H$2:$H$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="175"/>
+                <c:pt idx="0">
+                  <c:v>0.56886139999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6242586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63021479999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63066789999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71267420000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78606659999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78660969999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78727749999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79150359999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79210069999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86901479999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94403170000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94491159999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95331069999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95394369999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95439790000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95487089999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0284876000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0288169</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1007670000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1048104000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1060447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1812585</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1832347000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1884275</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2914222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3002355000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30314659999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3034895</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3038198999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4157934999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4165584</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4189311</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4193381</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42077199999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5153548</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5162224</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5174574000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51823920000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5207185000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52112069999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6265482</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.62707449999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63160329999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63198200000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63255859999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7380126</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7408735</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.74318580000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.74342739999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.74621550000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.7465427</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.85759350000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.85800430000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.8584328</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.85886249999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.85933230000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.86010620000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.86085970000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8613335</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9658804999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0749801999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0753404</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0756981999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.0760395</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0857671</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0862263000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0866038</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.086948</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0872721999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2155511000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2159622000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2166090000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2206047</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2215651999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2218188000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2221283999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2224556</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2228516</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.3425852</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3428785000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.3431632</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3478706</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3481194000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.4723176</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4727665999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.4765505999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.4799638</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.48045009999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.48085850000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.48122150000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4815486</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4821195</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.61214999999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.61286680000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.6182243999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.61847969999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.61876489999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.61903129999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.6195552</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.62018720000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.74482199999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7454316999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.74578339999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.74617330000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8643510000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.86946060000000003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.86970519999999996</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.8699760000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.87028399999999995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.87055919999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.8709378000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.87116689999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.88488940000000005</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.89246689999999995</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.8984761</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.89961950000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.91558459999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.96216690000000005</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.9634494</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.97522310000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.97918499999999997</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.98376180000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.9890022000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.0061724000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.0348299999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.0500407</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1002688</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1054333000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1112314000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1166822000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.1199422999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.1216629</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.1277117999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.1278424</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.1444761000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.1510815999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.1562395999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.2118728999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.2180542999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.2276883000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.2467398000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.2652795000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.2910877000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.3199312000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.3387575</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.36692619999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.3757695999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.38453090000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4039257999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.4047312000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.4123961</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.4171636000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.4216868</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.4394313000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.4653039000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.4752409</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.47942610000000002</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.4849502000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.52835290000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.54966990000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.5630052000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.6050454999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.6382241</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.65820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.7275403</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.8540909000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.8951958</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.97288799999999998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.97289170000000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.0365025999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.0684664000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.1059017</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.2391285999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.3412809000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17BF-47C8-B7EA-16C48D3AAB19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1218131216"/>
+        <c:axId val="1218127376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1218131216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1218127376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1218127376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1218131216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4916,6 +6360,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6464,6 +7948,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6669,16 +8656,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>450851</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112714</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6698,6 +8685,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F257CC-CD8C-4882-2A32-68B64BD5CD64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7043,26 +9066,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202A859E-2170-114F-A3C6-EFC3AA41D3AC}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.4375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="17.3125" customWidth="1"/>
-    <col min="4" max="4" width="13.3125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="8" width="18.1875" customWidth="1"/>
-    <col min="9" max="9" width="19.1875" customWidth="1"/>
-    <col min="11" max="11" width="19.8125" customWidth="1"/>
-    <col min="12" max="12" width="15.6875" customWidth="1"/>
+    <col min="7" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:18" ht="19">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7083,8 +9110,17 @@
         <v>16</v>
       </c>
       <c r="L1" s="6"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="24"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7115,8 +9151,21 @@
       <c r="L3" s="7">
         <v>2.6835926974999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1.123469017714285</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1.6201696691428573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7147,8 +9196,20 @@
       <c r="L4">
         <v>7.4860821202181002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>3.2705099115206589E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>7.9390369206651365E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7180,8 +9241,21 @@
       <c r="L5" s="7">
         <v>2.2425965000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.1002688</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1.3913682000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -7213,8 +9287,20 @@
       <c r="L6">
         <v>1.4972164240436201</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>0.43264779431277606</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>1.0502358670719987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7245,8 +9331,20 @@
       <c r="L7">
         <v>2.2416570204259654</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>0.18718411392371018</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>1.1029953764844727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7277,8 +9375,20 @@
       <c r="L8">
         <v>8.5842757882989531</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>-0.19179047212754075</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>25.089702082403992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7309,8 +9419,20 @@
       <c r="L9">
         <v>2.3616290678074181</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>0.47611442638533075</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>4.3146909957876725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7341,8 +9463,20 @@
       <c r="L10">
         <v>12.063437499999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <v>1.9621329000000001</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10">
+        <v>8.4590542000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -7374,8 +9508,21 @@
       <c r="L11" s="7">
         <v>0.80460739999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="N11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.30314659999999999</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.43638680000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -7407,8 +9554,21 @@
       <c r="L12" s="7">
         <v>12.868044899999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="N12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2.2652795000000001</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="2">
+        <v>8.8954409999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -7439,8 +9599,20 @@
       <c r="L13">
         <v>1073.4370789999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.149999999999999" thickBot="1">
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <v>196.60707809999988</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13">
+        <v>283.52969210000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -7470,6 +9642,18 @@
       </c>
       <c r="L14" s="5">
         <v>400</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="5">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="5">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7481,15 +9665,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E6C42B-7D81-C345-B5B5-08C788A006F8}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="25.5625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3125" customWidth="1"/>
-    <col min="4" max="5" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="5" width="30.6640625" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8835,16 +11019,16 @@
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.6875" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" customWidth="1"/>
-    <col min="7" max="7" width="27.4375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10880,23 +13064,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556B648E-E39A-9A42-8516-1E0A85B07E5E}">
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:T401"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9:T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="21.8125" customWidth="1"/>
-    <col min="5" max="5" width="18.1875" customWidth="1"/>
-    <col min="6" max="6" width="20.1875" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:20" s="2" customFormat="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -10913,8 +13099,14 @@
       <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="B2" s="1">
         <v>0.49209160000000002</v>
       </c>
@@ -10930,8 +13122,14 @@
       <c r="F2" s="1">
         <v>1.5981468999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1.3765270000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.56886139999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="B3" s="1">
         <v>0.49414609999999998</v>
       </c>
@@ -10947,8 +13145,14 @@
       <c r="F3" s="1">
         <v>1.6034495</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1.3785917000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.6242586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="B4" s="1">
         <v>0.53488619999999998</v>
       </c>
@@ -10964,8 +13168,14 @@
       <c r="F4" s="1">
         <v>1.6068051999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1.3790837</v>
+      </c>
+      <c r="H4">
+        <v>0.63021479999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="B5" s="1">
         <v>0.61355649999999995</v>
       </c>
@@ -10981,8 +13191,14 @@
       <c r="F5" s="1">
         <v>1.6746042000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1.5029432</v>
+      </c>
+      <c r="H5">
+        <v>0.63066789999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="B6" s="1">
         <v>0.618946</v>
       </c>
@@ -10998,8 +13214,14 @@
       <c r="F6" s="1">
         <v>1.6750571999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.50464889999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.71267420000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7" s="1">
         <v>0.69306749999999995</v>
       </c>
@@ -11015,8 +13237,14 @@
       <c r="F7" s="1">
         <v>1.7885519000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1.5070545</v>
+      </c>
+      <c r="H7">
+        <v>0.78606659999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17" thickBot="1">
       <c r="B8" s="1">
         <v>0.69387889999999997</v>
       </c>
@@ -11032,8 +13260,14 @@
       <c r="F8" s="1">
         <v>1.8924314</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>1.5793919999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.78660969999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="B9" s="1">
         <v>0.69437020000000005</v>
       </c>
@@ -11049,8 +13283,18 @@
       <c r="F9" s="1">
         <v>2.1107933000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.58457479999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.78727749999999996</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="B10" s="1">
         <v>0.69823179999999996</v>
       </c>
@@ -11066,8 +13310,14 @@
       <c r="F10" s="1">
         <v>2.1113613</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>1.6586856000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.79150359999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="B11" s="1">
         <v>0.70563419999999999</v>
       </c>
@@ -11083,8 +13333,20 @@
       <c r="F11" s="1">
         <v>2.2425486000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0.74739270000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.79210069999999999</v>
+      </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>1.6201696691428573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="B12" s="1">
         <v>0.84767329999999996</v>
       </c>
@@ -11100,8 +13362,20 @@
       <c r="F12" s="1">
         <v>2.2431079999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>1.7479613000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.86901479999999998</v>
+      </c>
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>7.9390369206651365E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="B13" s="1">
         <v>0.84972650000000005</v>
       </c>
@@ -11117,8 +13391,20 @@
       <c r="F13" s="1">
         <v>1.3456395999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0.82231540000000003</v>
+      </c>
+      <c r="H13">
+        <v>0.94403170000000003</v>
+      </c>
+      <c r="S13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>1.3913682000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="B14" s="1">
         <v>0.85019100000000003</v>
       </c>
@@ -11134,8 +13420,20 @@
       <c r="F14" s="1">
         <v>2.4798637000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>1.8271697</v>
+      </c>
+      <c r="H14">
+        <v>0.94491159999999996</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="B15" s="1">
         <v>0.92562739999999999</v>
       </c>
@@ -11151,8 +13449,20 @@
       <c r="F15" s="1">
         <v>1.4801211000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0.90660649999999998</v>
+      </c>
+      <c r="H15">
+        <v>0.95331069999999996</v>
+      </c>
+      <c r="S15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>1.0502358670719987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="B16" s="1">
         <v>0.92635900000000004</v>
       </c>
@@ -11168,8 +13478,20 @@
       <c r="F16" s="1">
         <v>1.4802846999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16">
+        <v>0.97924920000000004</v>
+      </c>
+      <c r="H16">
+        <v>0.95394369999999995</v>
+      </c>
+      <c r="S16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>1.1029953764844727</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
       <c r="B17" s="1">
         <v>0.93155730000000003</v>
       </c>
@@ -11185,8 +13507,20 @@
       <c r="F17" s="1">
         <v>1.4804344</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17">
+        <v>0.98470679999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.95439790000000002</v>
+      </c>
+      <c r="S17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>25.089702082403992</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
       <c r="B18" s="1">
         <v>1.0031759</v>
       </c>
@@ -11202,8 +13536,20 @@
       <c r="F18" s="1">
         <v>2.6119538000000002</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18">
+        <v>1.9851825000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.95487089999999997</v>
+      </c>
+      <c r="S18" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>4.3146909957876725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19" s="1">
         <v>1.1151207999999999</v>
       </c>
@@ -11219,8 +13565,20 @@
       <c r="F19" s="1">
         <v>2.6149486999999998</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19">
+        <v>1.9856654</v>
+      </c>
+      <c r="H19">
+        <v>1.0284876000000001</v>
+      </c>
+      <c r="S19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>8.4590542000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20" s="1">
         <v>1.1153131999999999</v>
       </c>
@@ -11236,8 +13594,20 @@
       <c r="F20" s="1">
         <v>1.7370139</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20">
+        <v>1.0906096999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.0288169</v>
+      </c>
+      <c r="S20" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <v>0.43638680000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21" s="1">
         <v>1.115472</v>
       </c>
@@ -11253,8 +13623,20 @@
       <c r="F21" s="1">
         <v>1.7374301000000001</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21">
+        <v>1.0910344000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.1007670000000001</v>
+      </c>
+      <c r="S21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <v>8.8954409999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
       <c r="B22" s="1">
         <v>1.1158463000000001</v>
       </c>
@@ -11270,8 +13652,20 @@
       <c r="F22" s="1">
         <v>1.7377647000000001</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22">
+        <v>1.0977481</v>
+      </c>
+      <c r="H22">
+        <v>1.1048104000000001</v>
+      </c>
+      <c r="S22" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22">
+        <v>283.52969210000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="17" thickBot="1">
       <c r="B23" s="1">
         <v>1.1161475000000001</v>
       </c>
@@ -11287,8 +13681,20 @@
       <c r="F23" s="1">
         <v>1.7381770999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23">
+        <v>1.0983293000000001</v>
+      </c>
+      <c r="H23">
+        <v>1.1060447</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24" s="1">
         <v>1.2381009999999999</v>
       </c>
@@ -11304,8 +13710,14 @@
       <c r="F24" s="1">
         <v>2.7384469999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24">
+        <v>2.0989148000000002</v>
+      </c>
+      <c r="H24">
+        <v>1.1812585</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25" s="1">
         <v>1.2385211</v>
       </c>
@@ -11321,8 +13733,14 @@
       <c r="F25" s="1">
         <v>2.8765556000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25">
+        <v>1.2121857</v>
+      </c>
+      <c r="H25">
+        <v>1.1832347000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
       <c r="B26" s="1">
         <v>1.2387421999999999</v>
       </c>
@@ -11338,8 +13756,14 @@
       <c r="F26" s="1">
         <v>1.8792399</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26">
+        <v>1.2126117999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.1884275</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
       <c r="B27" s="1">
         <v>1.2390663</v>
       </c>
@@ -11355,8 +13779,14 @@
       <c r="F27" s="1">
         <v>1.1361968</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27">
+        <v>1.2133119000000001</v>
+      </c>
+      <c r="H27">
+        <v>1.2914222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
       <c r="B28" s="1">
         <v>1.2393812</v>
       </c>
@@ -11372,8 +13802,14 @@
       <c r="F28" s="1">
         <v>1.1364304000000001</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="G28">
+        <v>1.2138367000000001</v>
+      </c>
+      <c r="H28">
+        <v>1.3002355000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
       <c r="B29" s="1">
         <v>1.2440125</v>
       </c>
@@ -11389,8 +13825,14 @@
       <c r="F29" s="1">
         <v>2.1367196000000002</v>
       </c>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29">
+        <v>1.2142900000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.30314659999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
       <c r="B30" s="1">
         <v>1.2459286000000001</v>
       </c>
@@ -11406,8 +13848,14 @@
       <c r="F30" s="1">
         <v>3.1370122</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30">
+        <v>1.3236403000000001</v>
+      </c>
+      <c r="H30">
+        <v>1.3034895</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
       <c r="B31" s="1">
         <v>1.3477441999999999</v>
       </c>
@@ -11423,8 +13871,14 @@
       <c r="F31" s="1">
         <v>2.1373171000000002</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31">
+        <v>1.4233344000000001</v>
+      </c>
+      <c r="H31">
+        <v>1.3038198999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
       <c r="B32" s="1">
         <v>1.3482049</v>
       </c>
@@ -11440,8 +13894,14 @@
       <c r="F32" s="1">
         <v>2.2683352999999999</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32">
+        <v>2.4342521000000001</v>
+      </c>
+      <c r="H32">
+        <v>1.4157934999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="1">
         <v>1.4605269999999999</v>
       </c>
@@ -11457,8 +13917,14 @@
       <c r="F33" s="1">
         <v>2.2686375000000001</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="G33">
+        <v>1.4346532999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.4165584</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="1">
         <v>1.4607314</v>
       </c>
@@ -11474,8 +13940,14 @@
       <c r="F34" s="1">
         <v>2.2687857999999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="G34">
+        <v>2.4353937999999999</v>
+      </c>
+      <c r="H34">
+        <v>1.4189311</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="1">
         <v>0.46085860000000001</v>
       </c>
@@ -11491,8 +13963,14 @@
       <c r="F35" s="1">
         <v>2.5493389</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="G35">
+        <v>1.4360018999999999</v>
+      </c>
+      <c r="H35">
+        <v>1.4193381</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="1">
         <v>1.46122</v>
       </c>
@@ -11508,8 +13986,14 @@
       <c r="F36" s="1">
         <v>3.5500737</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="G36">
+        <v>0.43638680000000002</v>
+      </c>
+      <c r="H36">
+        <v>0.42077199999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" s="1">
         <v>0.4828578</v>
       </c>
@@ -11525,8 +14009,14 @@
       <c r="F37" s="1">
         <v>1.5573736</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="G37">
+        <v>1.5418924000000001</v>
+      </c>
+      <c r="H37">
+        <v>0.5153548</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" s="1">
         <v>0.48383599999999999</v>
       </c>
@@ -11542,8 +14032,14 @@
       <c r="F38" s="1">
         <v>1.5578805</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="G38">
+        <v>2.6424934000000002</v>
+      </c>
+      <c r="H38">
+        <v>1.5162224</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="1">
         <v>1.4850752</v>
       </c>
@@ -11559,8 +14055,14 @@
       <c r="F39" s="1">
         <v>2.8767917000000001</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="G39">
+        <v>1.6479151999999999</v>
+      </c>
+      <c r="H39">
+        <v>1.5174574000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="1">
         <v>0.52325759999999999</v>
       </c>
@@ -11576,8 +14078,14 @@
       <c r="F40" s="1">
         <v>1.8771218999999999</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="G40">
+        <v>0.65076310000000004</v>
+      </c>
+      <c r="H40">
+        <v>0.51823920000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="1">
         <v>0.53028370000000002</v>
       </c>
@@ -11593,8 +14101,14 @@
       <c r="F41" s="1">
         <v>1.8772580000000001</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="G41">
+        <v>1.6511699</v>
+      </c>
+      <c r="H41">
+        <v>1.5207185000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="1">
         <v>0.55262299999999998</v>
       </c>
@@ -11610,8 +14124,14 @@
       <c r="F42" s="1">
         <v>1.8797824000000001</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="G42">
+        <v>0.65199580000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.52112069999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="1">
         <v>1.5923670000000001</v>
       </c>
@@ -11627,8 +14147,14 @@
       <c r="F43" s="1">
         <v>4.0492433999999999</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="G43">
+        <v>1.6534808000000001</v>
+      </c>
+      <c r="H43">
+        <v>1.6265482</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="1">
         <v>0.60108019999999995</v>
       </c>
@@ -11644,8 +14170,14 @@
       <c r="F44" s="1">
         <v>2.0495947999999999</v>
       </c>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="G44">
+        <v>1.7579545000000001</v>
+      </c>
+      <c r="H44">
+        <v>0.62707449999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="1">
         <v>0.62007730000000005</v>
       </c>
@@ -11661,8 +14193,14 @@
       <c r="F45" s="1">
         <v>2.0563581000000002</v>
       </c>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="G45">
+        <v>0.87493290000000001</v>
+      </c>
+      <c r="H45">
+        <v>0.63160329999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" s="1">
         <v>1.6762733999999999</v>
       </c>
@@ -11678,8 +14216,14 @@
       <c r="F46" s="1">
         <v>1.0568470999999999</v>
       </c>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="G46">
+        <v>0.8758184</v>
+      </c>
+      <c r="H46">
+        <v>0.63198200000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" s="1">
         <v>0.70408890000000002</v>
       </c>
@@ -11695,8 +14239,14 @@
       <c r="F47" s="1">
         <v>2.0570993999999998</v>
       </c>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="G47">
+        <v>0.87677760000000005</v>
+      </c>
+      <c r="H47">
+        <v>0.63255859999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" s="1">
         <v>0.71766490000000005</v>
       </c>
@@ -11712,8 +14262,14 @@
       <c r="F48" s="1">
         <v>3.0572772000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="G48">
+        <v>1.993644</v>
+      </c>
+      <c r="H48">
+        <v>1.7380126</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="1">
         <v>0.73087040000000003</v>
       </c>
@@ -11729,8 +14285,14 @@
       <c r="F49" s="1">
         <v>2.3792624</v>
       </c>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="G49">
+        <v>2.9939819999999999</v>
+      </c>
+      <c r="H49">
+        <v>1.7408735</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="1">
         <v>0.73103490000000004</v>
       </c>
@@ -11746,8 +14308,14 @@
       <c r="F50" s="1">
         <v>2.3801306000000002</v>
       </c>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="G50">
+        <v>0.9986621</v>
+      </c>
+      <c r="H50">
+        <v>0.74318580000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" s="1">
         <v>0.74298120000000001</v>
       </c>
@@ -11763,8 +14331,14 @@
       <c r="F51" s="1">
         <v>2.3804660000000002</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="G51">
+        <v>0.99891269999999999</v>
+      </c>
+      <c r="H51">
+        <v>0.74342739999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="1">
         <v>0.76228169999999995</v>
       </c>
@@ -11780,8 +14354,14 @@
       <c r="F52" s="1">
         <v>2.3912770000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="G52">
+        <v>1.1210941999999999</v>
+      </c>
+      <c r="H52">
+        <v>0.74621550000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="1">
         <v>0.77469109999999997</v>
       </c>
@@ -11797,8 +14377,14 @@
       <c r="F53" s="1">
         <v>1.5361148</v>
       </c>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="G53">
+        <v>1.1214283</v>
+      </c>
+      <c r="H53">
+        <v>0.7465427</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="1">
         <v>0.80701250000000002</v>
       </c>
@@ -11814,8 +14400,14 @@
       <c r="F54" s="1">
         <v>4.5365523000000003</v>
       </c>
-    </row>
-    <row r="55" spans="2:6">
+      <c r="G54">
+        <v>2.1259678000000002</v>
+      </c>
+      <c r="H54">
+        <v>0.85759350000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="1">
         <v>0.8444159</v>
       </c>
@@ -11831,8 +14423,14 @@
       <c r="F55" s="1">
         <v>1.5369362</v>
       </c>
-    </row>
-    <row r="56" spans="2:6">
+      <c r="G55">
+        <v>1.1261843</v>
+      </c>
+      <c r="H55">
+        <v>0.85800430000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="1">
         <v>1.8528275000000001</v>
       </c>
@@ -11848,8 +14446,14 @@
       <c r="F56" s="1">
         <v>1.5370408</v>
       </c>
-    </row>
-    <row r="57" spans="2:6">
+      <c r="G56">
+        <v>1.1264528</v>
+      </c>
+      <c r="H56">
+        <v>0.8584328</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="1">
         <v>0.87501770000000001</v>
       </c>
@@ -11865,8 +14469,14 @@
       <c r="F57" s="1">
         <v>1.705139</v>
       </c>
-    </row>
-    <row r="58" spans="2:6">
+      <c r="G57">
+        <v>1.1268171</v>
+      </c>
+      <c r="H57">
+        <v>0.85886249999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="1">
         <v>1.8847611</v>
       </c>
@@ -11882,8 +14492,14 @@
       <c r="F58" s="1">
         <v>2.7055113</v>
       </c>
-    </row>
-    <row r="59" spans="2:6">
+      <c r="G58">
+        <v>1.1330521</v>
+      </c>
+      <c r="H58">
+        <v>0.85933230000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="1">
         <v>0.89490440000000004</v>
       </c>
@@ -11899,8 +14515,14 @@
       <c r="F59" s="1">
         <v>2.7100507</v>
       </c>
-    </row>
-    <row r="60" spans="2:6">
+      <c r="G59">
+        <v>3.2610983999999998</v>
+      </c>
+      <c r="H59">
+        <v>0.86010620000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="1">
         <v>0.9480788</v>
       </c>
@@ -11916,8 +14538,14 @@
       <c r="F60" s="1">
         <v>4.7101907000000001</v>
       </c>
-    </row>
-    <row r="61" spans="2:6">
+      <c r="G60">
+        <v>1.2656927</v>
+      </c>
+      <c r="H60">
+        <v>0.86085970000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="1">
         <v>0.96302560000000004</v>
       </c>
@@ -11933,8 +14561,14 @@
       <c r="F61" s="1">
         <v>2.7104949999999999</v>
       </c>
-    </row>
-    <row r="62" spans="2:6">
+      <c r="G61">
+        <v>1.2666599000000001</v>
+      </c>
+      <c r="H61">
+        <v>1.8613335</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" s="1">
         <v>0.97434540000000003</v>
       </c>
@@ -11950,8 +14584,14 @@
       <c r="F62" s="1">
         <v>1.8938056000000001</v>
       </c>
-    </row>
-    <row r="63" spans="2:6">
+      <c r="G62">
+        <v>1.2671687</v>
+      </c>
+      <c r="H62">
+        <v>1.9658804999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" s="1">
         <v>1.9875681000000001</v>
       </c>
@@ -11967,8 +14607,14 @@
       <c r="F63" s="1">
         <v>1.894347</v>
       </c>
-    </row>
-    <row r="64" spans="2:6">
+      <c r="G63">
+        <v>1.2674308000000001</v>
+      </c>
+      <c r="H63">
+        <v>1.0749801999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="1">
         <v>1.0179241999999999</v>
       </c>
@@ -11984,8 +14630,14 @@
       <c r="F64" s="1">
         <v>2.9033454000000001</v>
       </c>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="G64">
+        <v>1.2677665</v>
+      </c>
+      <c r="H64">
+        <v>1.0753404</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="1">
         <v>1.0306423</v>
       </c>
@@ -12001,8 +14653,14 @@
       <c r="F65" s="1">
         <v>2.0811348999999999</v>
       </c>
-    </row>
-    <row r="66" spans="2:6">
+      <c r="G65">
+        <v>1.2680168999999999</v>
+      </c>
+      <c r="H65">
+        <v>1.0756981999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" s="1">
         <v>1.0417072000000001</v>
       </c>
@@ -12018,8 +14676,14 @@
       <c r="F66" s="1">
         <v>2.0821467</v>
       </c>
-    </row>
-    <row r="67" spans="2:6">
+      <c r="G66">
+        <v>2.3909429000000002</v>
+      </c>
+      <c r="H66">
+        <v>1.0760395</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="1">
         <v>1.0900189</v>
       </c>
@@ -12035,8 +14699,14 @@
       <c r="F67" s="1">
         <v>3.0822365</v>
       </c>
-    </row>
-    <row r="68" spans="2:6">
+      <c r="G67">
+        <v>1.3911659999999999</v>
+      </c>
+      <c r="H67">
+        <v>1.0857671</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="1">
         <v>1.1377432000000001</v>
       </c>
@@ -12052,8 +14722,14 @@
       <c r="F68" s="1">
         <v>3.0910487</v>
       </c>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="G68">
+        <v>1.3913682000000001</v>
+      </c>
+      <c r="H68">
+        <v>1.0862263000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" s="1">
         <v>1.1663501000000001</v>
       </c>
@@ -12069,8 +14745,14 @@
       <c r="F69" s="1">
         <v>5.2676290999999997</v>
       </c>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="G69">
+        <v>1.3918666</v>
+      </c>
+      <c r="H69">
+        <v>1.0866038</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" s="1">
         <v>2.1759187999999998</v>
       </c>
@@ -12086,8 +14768,14 @@
       <c r="F70" s="1">
         <v>3.2679874</v>
       </c>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="G70">
+        <v>1.3922288</v>
+      </c>
+      <c r="H70">
+        <v>1.086948</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" s="1">
         <v>1.1779964000000001</v>
       </c>
@@ -12103,8 +14791,14 @@
       <c r="F71" s="1">
         <v>3.2681689</v>
       </c>
-    </row>
-    <row r="72" spans="2:6">
+      <c r="G71">
+        <v>1.3924666000000001</v>
+      </c>
+      <c r="H71">
+        <v>1.0872721999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" s="1">
         <v>1.1882245</v>
       </c>
@@ -12120,8 +14814,14 @@
       <c r="F72" s="1">
         <v>3.275541</v>
       </c>
-    </row>
-    <row r="73" spans="2:6">
+      <c r="G72">
+        <v>3.5191460000000001</v>
+      </c>
+      <c r="H72">
+        <v>1.2155511000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" s="1">
         <v>1.1925679</v>
       </c>
@@ -12137,8 +14837,14 @@
       <c r="F73" s="1">
         <v>1.2758451</v>
       </c>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="G73">
+        <v>1.5273604000000001</v>
+      </c>
+      <c r="H73">
+        <v>1.2159622000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" s="1">
         <v>1.2083813000000001</v>
       </c>
@@ -12154,8 +14860,14 @@
       <c r="F74" s="1">
         <v>2.4550907</v>
       </c>
-    </row>
-    <row r="75" spans="2:6">
+      <c r="G74">
+        <v>1.5278562</v>
+      </c>
+      <c r="H74">
+        <v>1.2166090000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
       <c r="B75" s="1">
         <v>1.2405550000000001</v>
       </c>
@@ -12171,8 +14883,14 @@
       <c r="F75" s="1">
         <v>2.4552377000000001</v>
       </c>
-    </row>
-    <row r="76" spans="2:6">
+      <c r="G75">
+        <v>1.5282062999999999</v>
+      </c>
+      <c r="H75">
+        <v>2.2206047</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
       <c r="B76" s="1">
         <v>0.43290729999999999</v>
       </c>
@@ -12188,8 +14906,14 @@
       <c r="F76" s="1">
         <v>3.4553981</v>
       </c>
-    </row>
-    <row r="77" spans="2:6">
+      <c r="G76">
+        <v>1.6453392</v>
+      </c>
+      <c r="H76">
+        <v>1.2215651999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
       <c r="B77" s="1">
         <v>0.48397079999999998</v>
       </c>
@@ -12205,8 +14929,14 @@
       <c r="F77" s="1">
         <v>4.4555167000000004</v>
       </c>
-    </row>
-    <row r="78" spans="2:6">
+      <c r="G77">
+        <v>1.6520131</v>
+      </c>
+      <c r="H77">
+        <v>1.2218188000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" s="1">
         <v>1.4952656</v>
       </c>
@@ -12222,8 +14952,14 @@
       <c r="F78" s="1">
         <v>1.6460159000000001</v>
       </c>
-    </row>
-    <row r="79" spans="2:6">
+      <c r="G78">
+        <v>1.6522969000000001</v>
+      </c>
+      <c r="H78">
+        <v>1.2221283999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79" s="1">
         <v>2.5344772</v>
       </c>
@@ -12239,8 +14975,14 @@
       <c r="F79" s="1">
         <v>2.6464929000000001</v>
       </c>
-    </row>
-    <row r="80" spans="2:6">
+      <c r="G79">
+        <v>1.6526864000000001</v>
+      </c>
+      <c r="H79">
+        <v>1.2224556</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
       <c r="B80" s="1">
         <v>1.5345358</v>
       </c>
@@ -12256,8 +14998,14 @@
       <c r="F80" s="1">
         <v>2.6497866999999999</v>
       </c>
-    </row>
-    <row r="81" spans="2:6">
+      <c r="G80">
+        <v>1.6534021000000001</v>
+      </c>
+      <c r="H80">
+        <v>1.2228516</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
       <c r="B81" s="1">
         <v>1.5396506000000001</v>
       </c>
@@ -12273,8 +15021,14 @@
       <c r="F81" s="1">
         <v>1.6541224000000001</v>
       </c>
-    </row>
-    <row r="82" spans="2:6">
+      <c r="G81">
+        <v>0.65369319999999997</v>
+      </c>
+      <c r="H81">
+        <v>1.3425852</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82" s="1">
         <v>1.5396525999999999</v>
       </c>
@@ -12290,8 +15044,14 @@
       <c r="F82" s="1">
         <v>1.8316117000000001</v>
       </c>
-    </row>
-    <row r="83" spans="2:6">
+      <c r="G82">
+        <v>0.65413049999999995</v>
+      </c>
+      <c r="H82">
+        <v>1.3428785000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
       <c r="B83" s="1">
         <v>1.5479141999999999</v>
       </c>
@@ -12307,8 +15067,14 @@
       <c r="F83" s="1">
         <v>1.8373438</v>
       </c>
-    </row>
-    <row r="84" spans="2:6">
+      <c r="G83">
+        <v>1.6546329</v>
+      </c>
+      <c r="H83">
+        <v>1.3431632</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
       <c r="B84" s="1">
         <v>1.5711648</v>
       </c>
@@ -12324,8 +15090,14 @@
       <c r="F84" s="1">
         <v>1.8405872000000001</v>
       </c>
-    </row>
-    <row r="85" spans="2:6">
+      <c r="G84">
+        <v>0.77558269999999996</v>
+      </c>
+      <c r="H84">
+        <v>1.3478706</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
       <c r="B85" s="1">
         <v>0.58252009999999999</v>
       </c>
@@ -12341,8 +15113,14 @@
       <c r="F85" s="1">
         <v>2.0181236</v>
       </c>
-    </row>
-    <row r="86" spans="2:6">
+      <c r="G85">
+        <v>0.77779359999999997</v>
+      </c>
+      <c r="H85">
+        <v>1.3481194000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86" s="1">
         <v>1.6133662</v>
       </c>
@@ -12358,8 +15136,14 @@
       <c r="F86" s="1">
         <v>3.0187789999999999</v>
       </c>
-    </row>
-    <row r="87" spans="2:6">
+      <c r="G86">
+        <v>0.77827729999999995</v>
+      </c>
+      <c r="H86">
+        <v>0.4723176</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" s="1">
         <v>1.6757869999999999</v>
       </c>
@@ -12375,8 +15159,14 @@
       <c r="F87" s="1">
         <v>2.0190456999999999</v>
       </c>
-    </row>
-    <row r="88" spans="2:6">
+      <c r="G87">
+        <v>1.7787310000000001</v>
+      </c>
+      <c r="H87">
+        <v>1.4727665999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88" s="1">
         <v>1.6927629</v>
       </c>
@@ -12392,8 +15182,14 @@
       <c r="F88" s="1">
         <v>2.0249994999999998</v>
       </c>
-    </row>
-    <row r="89" spans="2:6">
+      <c r="G88">
+        <v>0.77972209999999997</v>
+      </c>
+      <c r="H88">
+        <v>1.4765505999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89" s="1">
         <v>0.82568450000000004</v>
       </c>
@@ -12409,8 +15205,14 @@
       <c r="F89" s="1">
         <v>4.2305251999999998</v>
       </c>
-    </row>
-    <row r="90" spans="2:6">
+      <c r="G89">
+        <v>0.78036760000000005</v>
+      </c>
+      <c r="H89">
+        <v>0.4799638</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90" s="1">
         <v>2.8318588999999998</v>
       </c>
@@ -12426,8 +15228,14 @@
       <c r="F90" s="1">
         <v>2.2311225000000001</v>
       </c>
-    </row>
-    <row r="91" spans="2:6">
+      <c r="G90">
+        <v>0.78124450000000001</v>
+      </c>
+      <c r="H90">
+        <v>0.48045009999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91" s="1">
         <v>1.8472716</v>
       </c>
@@ -12443,8 +15251,14 @@
       <c r="F91" s="1">
         <v>2.2387397</v>
       </c>
-    </row>
-    <row r="92" spans="2:6">
+      <c r="G91">
+        <v>1.8984873</v>
+      </c>
+      <c r="H91">
+        <v>0.48085850000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
       <c r="B92" s="1">
         <v>1.8584499000000001</v>
       </c>
@@ -12460,8 +15274,14 @@
       <c r="F92" s="1">
         <v>1.4258126</v>
       </c>
-    </row>
-    <row r="93" spans="2:6">
+      <c r="G92">
+        <v>0.90067609999999998</v>
+      </c>
+      <c r="H92">
+        <v>0.48122150000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
       <c r="B93" s="1">
         <v>1.8993507999999999</v>
       </c>
@@ -12477,8 +15297,14 @@
       <c r="F93" s="1">
         <v>3.4262507000000002</v>
       </c>
-    </row>
-    <row r="94" spans="2:6">
+      <c r="G93">
+        <v>1.9046985999999999</v>
+      </c>
+      <c r="H93">
+        <v>1.4815486</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
       <c r="B94" s="1">
         <v>1.9050119999999999</v>
       </c>
@@ -12494,8 +15320,14 @@
       <c r="F94" s="1">
         <v>6.4264521999999999</v>
       </c>
-    </row>
-    <row r="95" spans="2:6">
+      <c r="G94">
+        <v>0.90487830000000002</v>
+      </c>
+      <c r="H94">
+        <v>1.4821195</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
       <c r="B95" s="1">
         <v>0.90656519999999996</v>
       </c>
@@ -12511,8 +15343,14 @@
       <c r="F95" s="1">
         <v>3.4266222000000002</v>
       </c>
-    </row>
-    <row r="96" spans="2:6">
+      <c r="G95">
+        <v>0.90575629999999996</v>
+      </c>
+      <c r="H95">
+        <v>0.61214999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
       <c r="B96" s="1">
         <v>1.909368</v>
       </c>
@@ -12528,8 +15366,14 @@
       <c r="F96" s="1">
         <v>2.6483161000000002</v>
       </c>
-    </row>
-    <row r="97" spans="2:6">
+      <c r="G96">
+        <v>1.0606841</v>
+      </c>
+      <c r="H96">
+        <v>0.61286680000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
       <c r="B97" s="1">
         <v>0.99878230000000001</v>
       </c>
@@ -12545,8 +15389,14 @@
       <c r="F97" s="1">
         <v>1.6491274</v>
       </c>
-    </row>
-    <row r="98" spans="2:6">
+      <c r="G97">
+        <v>1.0630599999999999</v>
+      </c>
+      <c r="H97">
+        <v>1.6182243999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
       <c r="B98" s="1">
         <v>2.1289848</v>
       </c>
@@ -12562,8 +15412,14 @@
       <c r="F98" s="1">
         <v>2.6492323</v>
       </c>
-    </row>
-    <row r="99" spans="2:6">
+      <c r="G98">
+        <v>1.063288</v>
+      </c>
+      <c r="H98">
+        <v>0.61847969999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
       <c r="B99" s="1">
         <v>1.601197</v>
       </c>
@@ -12579,8 +15435,14 @@
       <c r="F99" s="1">
         <v>2.6601442</v>
       </c>
-    </row>
-    <row r="100" spans="2:6">
+      <c r="G99">
+        <v>2.2182346000000002</v>
+      </c>
+      <c r="H99">
+        <v>0.61876489999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
       <c r="B100" s="1">
         <v>0.68799840000000001</v>
       </c>
@@ -12596,8 +15458,14 @@
       <c r="F100" s="1">
         <v>2.8469650999999998</v>
       </c>
-    </row>
-    <row r="101" spans="2:6">
+      <c r="G100">
+        <v>2.2208342999999999</v>
+      </c>
+      <c r="H100">
+        <v>0.61903129999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
       <c r="B101" s="1">
         <v>1.7764397000000001</v>
       </c>
@@ -12613,380 +15481,836 @@
       <c r="F101" s="1">
         <v>1.8474188</v>
       </c>
-    </row>
-    <row r="102" spans="2:6">
+      <c r="G101">
+        <v>1.2223763999999999</v>
+      </c>
+      <c r="H101">
+        <v>1.6195552</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
       <c r="F102" s="1">
         <v>1.8478608999999999</v>
       </c>
-    </row>
-    <row r="103" spans="2:6">
+      <c r="G102">
+        <v>1.2225349999999999</v>
+      </c>
+      <c r="H102">
+        <v>0.62018720000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
       <c r="F103" s="1">
         <v>2.8479977000000001</v>
       </c>
-    </row>
-    <row r="104" spans="2:6">
+      <c r="G103">
+        <v>1.2227171999999999</v>
+      </c>
+      <c r="H103">
+        <v>0.74482199999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
       <c r="F104" s="1">
         <v>2.8480435000000002</v>
       </c>
-    </row>
-    <row r="105" spans="2:6">
+      <c r="G104">
+        <v>1.2228627999999999</v>
+      </c>
+      <c r="H104">
+        <v>1.7454316999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
       <c r="F105" s="1">
         <v>2.8536267999999998</v>
       </c>
-    </row>
-    <row r="106" spans="2:6">
+      <c r="G105">
+        <v>1.2231867000000001</v>
+      </c>
+      <c r="H105">
+        <v>0.74578339999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
       <c r="F106" s="1">
         <v>1.8541551999999999</v>
       </c>
-    </row>
-    <row r="107" spans="2:6">
+      <c r="G106">
+        <v>1.2234665</v>
+      </c>
+      <c r="H106">
+        <v>0.74617330000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
       <c r="F107" s="1">
         <v>4.0512926</v>
       </c>
-    </row>
-    <row r="108" spans="2:6">
+      <c r="G107">
+        <v>1.37399</v>
+      </c>
+      <c r="H107">
+        <v>1.8643510000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
       <c r="F108" s="1">
         <v>2.0516052</v>
       </c>
-    </row>
-    <row r="109" spans="2:6">
+      <c r="G108">
+        <v>1.3783741</v>
+      </c>
+      <c r="H108">
+        <v>0.86946060000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
       <c r="F109" s="1">
         <v>2.0518288999999998</v>
       </c>
-    </row>
-    <row r="110" spans="2:6">
+      <c r="G109">
+        <v>1.3788286000000001</v>
+      </c>
+      <c r="H109">
+        <v>0.86970519999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
       <c r="F110" s="1">
         <v>3.2535033000000002</v>
       </c>
-    </row>
-    <row r="111" spans="2:6">
+      <c r="G110">
+        <v>1.3791987999999999</v>
+      </c>
+      <c r="H110">
+        <v>1.8699760000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
       <c r="F111" s="1">
         <v>5.2538277999999998</v>
       </c>
-    </row>
-    <row r="112" spans="2:6">
+      <c r="G111">
+        <v>1.3792135999999999</v>
+      </c>
+      <c r="H111">
+        <v>0.87028399999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
       <c r="F112" s="1">
         <v>1.2539895999999999</v>
       </c>
-    </row>
-    <row r="113" spans="6:6">
+      <c r="G112">
+        <v>1.3797478000000001</v>
+      </c>
+      <c r="H112">
+        <v>0.87055919999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8">
       <c r="F113" s="1">
         <v>3.2541456000000002</v>
       </c>
-    </row>
-    <row r="114" spans="6:6">
+      <c r="G113">
+        <v>1.3797614</v>
+      </c>
+      <c r="H113">
+        <v>1.8709378000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8">
       <c r="F114" s="1">
         <v>5.2545023999999998</v>
       </c>
-    </row>
-    <row r="115" spans="6:6">
+      <c r="G114">
+        <v>1.3798433999999999</v>
+      </c>
+      <c r="H114">
+        <v>0.87116689999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8">
       <c r="F115" s="1">
         <v>4.2548366</v>
       </c>
-    </row>
-    <row r="116" spans="6:6">
+      <c r="G115">
+        <v>1.3798937</v>
+      </c>
+      <c r="H115">
+        <v>0.88488940000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8">
       <c r="F116" s="1">
         <v>1.2577413</v>
       </c>
-    </row>
-    <row r="117" spans="6:6">
+      <c r="G116">
+        <v>1.3799509000000001</v>
+      </c>
+      <c r="H116">
+        <v>0.89246689999999995</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8">
       <c r="F117" s="1">
         <v>2.2579235</v>
       </c>
-    </row>
-    <row r="118" spans="6:6">
+      <c r="G117">
+        <v>1.379975</v>
+      </c>
+      <c r="H117">
+        <v>0.8984761</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8">
       <c r="F118" s="1">
         <v>3.4557386000000001</v>
       </c>
-    </row>
-    <row r="119" spans="6:6">
+      <c r="G118">
+        <v>1.3801866</v>
+      </c>
+      <c r="H118">
+        <v>0.89961950000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8">
       <c r="F119" s="1">
         <v>2.4562221000000002</v>
       </c>
-    </row>
-    <row r="120" spans="6:6">
+      <c r="G119">
+        <v>1.4478375000000001</v>
+      </c>
+      <c r="H119">
+        <v>0.91558459999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8">
       <c r="F120" s="1">
         <v>4.4564738000000004</v>
       </c>
-    </row>
-    <row r="121" spans="6:6">
+      <c r="G120">
+        <v>0.46716530000000001</v>
+      </c>
+      <c r="H120">
+        <v>0.96216690000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8">
       <c r="F121" s="1">
         <v>1.4644634000000001</v>
       </c>
-    </row>
-    <row r="122" spans="6:6">
+      <c r="G121">
+        <v>1.4718713999999999</v>
+      </c>
+      <c r="H121">
+        <v>1.9634494</v>
+      </c>
+    </row>
+    <row r="122" spans="6:8">
       <c r="F122" s="1">
         <v>2.4646477999999998</v>
       </c>
-    </row>
-    <row r="123" spans="6:6">
+      <c r="G122">
+        <v>1.4944772</v>
+      </c>
+      <c r="H122">
+        <v>0.97522310000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8">
       <c r="F123" s="1">
         <v>2.6598103000000002</v>
       </c>
-    </row>
-    <row r="124" spans="6:6">
+      <c r="G123">
+        <v>1.545617</v>
+      </c>
+      <c r="H123">
+        <v>0.97918499999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="6:8">
       <c r="F124" s="1">
         <v>1.6680695000000001</v>
       </c>
-    </row>
-    <row r="125" spans="6:6">
+      <c r="G124">
+        <v>1.5462578</v>
+      </c>
+      <c r="H124">
+        <v>0.98376180000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="6:8">
       <c r="F125" s="1">
         <v>2.6685766000000002</v>
       </c>
-    </row>
-    <row r="126" spans="6:6">
+      <c r="G125">
+        <v>1.5636713</v>
+      </c>
+      <c r="H125">
+        <v>1.9890022000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="6:8">
       <c r="F126" s="1">
         <v>2.6687173</v>
       </c>
-    </row>
-    <row r="127" spans="6:6">
+      <c r="G126">
+        <v>1.5929802</v>
+      </c>
+      <c r="H126">
+        <v>2.0061724000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8">
       <c r="F127" s="1">
         <v>1.6688476999999999</v>
       </c>
-    </row>
-    <row r="128" spans="6:6">
+      <c r="G127">
+        <v>1.6044252000000001</v>
+      </c>
+      <c r="H127">
+        <v>1.0348299999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8">
       <c r="F128" s="1">
         <v>3.6691091</v>
       </c>
-    </row>
-    <row r="129" spans="6:6">
+      <c r="G128">
+        <v>1.6210817</v>
+      </c>
+      <c r="H128">
+        <v>1.0500407</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8">
       <c r="F129" s="1">
         <v>4.8609716000000001</v>
       </c>
-    </row>
-    <row r="130" spans="6:6">
+      <c r="G129">
+        <v>1.6311944</v>
+      </c>
+      <c r="H129">
+        <v>1.1002688</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8">
       <c r="F130" s="1">
         <v>2.8612635000000002</v>
       </c>
-    </row>
-    <row r="131" spans="6:6">
+      <c r="G130">
+        <v>0.67174909999999999</v>
+      </c>
+      <c r="H130">
+        <v>1.1054333000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8">
       <c r="F131" s="1">
         <v>1.8617284000000001</v>
       </c>
-    </row>
-    <row r="132" spans="6:6">
+      <c r="G131">
+        <v>1.6742427</v>
+      </c>
+      <c r="H131">
+        <v>1.1112314000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8">
       <c r="F132" s="1">
         <v>3.1123080999999999</v>
       </c>
-    </row>
-    <row r="133" spans="6:6">
+      <c r="G132">
+        <v>1.6949342000000001</v>
+      </c>
+      <c r="H132">
+        <v>1.1166822000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="6:8">
       <c r="F133" s="1">
         <v>3.1125785000000001</v>
       </c>
-    </row>
-    <row r="134" spans="6:6">
+      <c r="G133">
+        <v>1.6992803999999999</v>
+      </c>
+      <c r="H133">
+        <v>2.1199422999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8">
       <c r="F134" s="1">
         <v>4.1127834999999999</v>
       </c>
-    </row>
-    <row r="135" spans="6:6">
+      <c r="G134">
+        <v>2.7209492000000002</v>
+      </c>
+      <c r="H134">
+        <v>1.1216629</v>
+      </c>
+    </row>
+    <row r="135" spans="6:8">
       <c r="F135" s="1">
         <v>1.1172578</v>
       </c>
-    </row>
-    <row r="136" spans="6:6">
+      <c r="G135">
+        <v>1.7901342</v>
+      </c>
+      <c r="H135">
+        <v>1.1277117999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="6:8">
       <c r="F136" s="1">
         <v>1.1174217</v>
       </c>
-    </row>
-    <row r="137" spans="6:6">
+      <c r="G136">
+        <v>0.79882719999999996</v>
+      </c>
+      <c r="H136">
+        <v>1.1278424</v>
+      </c>
+    </row>
+    <row r="137" spans="6:8">
       <c r="F137" s="1">
         <v>3.1174301</v>
       </c>
-    </row>
-    <row r="138" spans="6:6">
+      <c r="G137">
+        <v>0.82846089999999994</v>
+      </c>
+      <c r="H137">
+        <v>1.1444761000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="6:8">
       <c r="F138" s="1">
         <v>2.1175025999999999</v>
       </c>
-    </row>
-    <row r="139" spans="6:6">
+      <c r="G138">
+        <v>1.8387844</v>
+      </c>
+      <c r="H138">
+        <v>1.1510815999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="6:8">
       <c r="F139" s="1">
         <v>2.1177714000000001</v>
       </c>
-    </row>
-    <row r="140" spans="6:6">
+      <c r="G139">
+        <v>2.3332660000000001</v>
+      </c>
+      <c r="H139">
+        <v>1.1562395999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="6:8">
       <c r="F140" s="1">
         <v>1.3505433</v>
       </c>
-    </row>
-    <row r="141" spans="6:6">
+      <c r="G140">
+        <v>3.4142725</v>
+      </c>
+      <c r="H140">
+        <v>1.2118728999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="6:8">
       <c r="F141" s="1">
         <v>2.5980696999999999</v>
       </c>
-    </row>
-    <row r="142" spans="6:6">
+      <c r="G141">
+        <v>2.4482105999999999</v>
+      </c>
+      <c r="H141">
+        <v>1.2180542999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="6:8">
       <c r="F142" s="1">
         <v>3.5986723</v>
       </c>
-    </row>
-    <row r="143" spans="6:6">
+      <c r="G142">
+        <v>2.6404040000000002</v>
+      </c>
+      <c r="H142">
+        <v>2.2276883000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="6:8">
       <c r="F143" s="1">
         <v>2.5991222</v>
       </c>
-    </row>
-    <row r="144" spans="6:6">
+      <c r="G143">
+        <v>2.7609446000000002</v>
+      </c>
+      <c r="H143">
+        <v>1.2467398000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="6:8">
       <c r="F144" s="1">
         <v>2.6071105999999999</v>
       </c>
-    </row>
-    <row r="145" spans="6:6">
+      <c r="G144">
+        <v>2.8195361000000001</v>
+      </c>
+      <c r="H144">
+        <v>2.2652795000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8">
       <c r="F145" s="1">
         <v>3.6075042000000002</v>
       </c>
-    </row>
-    <row r="146" spans="6:6">
+      <c r="G145">
+        <v>2.8347045</v>
+      </c>
+      <c r="H145">
+        <v>1.2910877000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8">
       <c r="F146" s="1">
         <v>4.6077174999999997</v>
       </c>
-    </row>
-    <row r="147" spans="6:6">
+      <c r="G146">
+        <v>3.0335032000000002</v>
+      </c>
+      <c r="H146">
+        <v>1.3199312000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8">
       <c r="F147" s="1">
         <v>2.8335946000000001</v>
       </c>
-    </row>
-    <row r="148" spans="6:6">
+      <c r="G147">
+        <v>3.1124094000000002</v>
+      </c>
+      <c r="H147">
+        <v>1.3387575</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8">
       <c r="F148" s="1">
         <v>6.8341656999999998</v>
       </c>
-    </row>
-    <row r="149" spans="6:6">
+      <c r="G148">
+        <v>2.8375050000000002</v>
+      </c>
+      <c r="H148">
+        <v>0.36692619999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8">
       <c r="F149" s="1">
         <v>6.8344404000000001</v>
       </c>
-    </row>
-    <row r="150" spans="6:6">
+      <c r="G149">
+        <v>8.4442096000000006</v>
+      </c>
+      <c r="H149">
+        <v>1.3757695999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8">
       <c r="F150" s="1">
         <v>2.8347714000000002</v>
       </c>
-    </row>
-    <row r="151" spans="6:6">
+      <c r="G150">
+        <v>6.7664019</v>
+      </c>
+      <c r="H150">
+        <v>0.38453090000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8">
       <c r="F151" s="1">
         <v>1.8350417000000001</v>
       </c>
-    </row>
-    <row r="152" spans="6:6">
+      <c r="G151">
+        <v>8.8954409999999999</v>
+      </c>
+      <c r="H151">
+        <v>1.4039257999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8">
       <c r="F152" s="1">
         <v>1.8353216999999999</v>
       </c>
-    </row>
-    <row r="153" spans="6:6">
+      <c r="G152">
+        <v>0.77045220000000003</v>
+      </c>
+      <c r="H152">
+        <v>1.4047312000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8">
       <c r="F153" s="1">
         <v>3.8355172999999998</v>
       </c>
-    </row>
-    <row r="154" spans="6:6">
+      <c r="G153">
+        <v>1.1479961000000001</v>
+      </c>
+      <c r="H153">
+        <v>1.4123961</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8">
       <c r="F154" s="1">
         <v>1.835645</v>
       </c>
-    </row>
-    <row r="155" spans="6:6">
+      <c r="G154">
+        <v>1.2563732000000001</v>
+      </c>
+      <c r="H154">
+        <v>1.4171636000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8">
       <c r="F155" s="1">
         <v>4.8357222000000002</v>
       </c>
-    </row>
-    <row r="156" spans="6:6">
+      <c r="G155">
+        <v>1.2772547999999999</v>
+      </c>
+      <c r="H155">
+        <v>1.4216868</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8">
       <c r="F156" s="1">
         <v>2.8402269000000002</v>
       </c>
-    </row>
-    <row r="157" spans="6:6">
+      <c r="G156">
+        <v>1.3267321999999999</v>
+      </c>
+      <c r="H156">
+        <v>1.4394313000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8">
       <c r="F157" s="1">
         <v>1.8406876000000001</v>
       </c>
-    </row>
-    <row r="158" spans="6:6">
+      <c r="G157">
+        <v>1.3354862000000001</v>
+      </c>
+      <c r="H157">
+        <v>1.4653039000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8">
       <c r="F158" s="1">
         <v>6.0818472000000003</v>
       </c>
-    </row>
-    <row r="159" spans="6:6">
+      <c r="G158">
+        <v>1.3493394000000001</v>
+      </c>
+      <c r="H158">
+        <v>1.4752409</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8">
       <c r="F159" s="1">
         <v>2.0825870000000002</v>
       </c>
-    </row>
-    <row r="160" spans="6:6">
+      <c r="G159">
+        <v>1.3854735</v>
+      </c>
+      <c r="H159">
+        <v>0.47942610000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8">
       <c r="F160" s="1">
         <v>3.0912126999999998</v>
       </c>
-    </row>
-    <row r="161" spans="6:6">
+      <c r="G160">
+        <v>1.4054381</v>
+      </c>
+      <c r="H160">
+        <v>1.4849502000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="6:8">
       <c r="F161" s="1">
         <v>2.0919971999999998</v>
       </c>
-    </row>
-    <row r="162" spans="6:6">
+      <c r="G161">
+        <v>1.4479322999999999</v>
+      </c>
+      <c r="H161">
+        <v>0.52835290000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8">
       <c r="F162" s="1">
         <v>5.0924291999999998</v>
       </c>
-    </row>
-    <row r="163" spans="6:6">
+      <c r="G162">
+        <v>1.4946402000000001</v>
+      </c>
+      <c r="H162">
+        <v>0.54966990000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8">
       <c r="F163" s="1">
         <v>2.0924961999999998</v>
       </c>
-    </row>
-    <row r="164" spans="6:6">
+      <c r="G163">
+        <v>1.5129751</v>
+      </c>
+      <c r="H163">
+        <v>1.5630052000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8">
       <c r="F164" s="1">
         <v>2.098481</v>
       </c>
-    </row>
-    <row r="165" spans="6:6">
+      <c r="G164">
+        <v>1.5211847000000001</v>
+      </c>
+      <c r="H164">
+        <v>1.6050454999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="6:8">
       <c r="F165" s="1">
         <v>3.0987635999999998</v>
       </c>
-    </row>
-    <row r="166" spans="6:6">
+      <c r="G165">
+        <v>1.5254654000000001</v>
+      </c>
+      <c r="H165">
+        <v>1.6382241</v>
+      </c>
+    </row>
+    <row r="166" spans="6:8">
       <c r="F166" s="1">
         <v>3.0989211999999999</v>
       </c>
-    </row>
-    <row r="167" spans="6:6">
+      <c r="G166">
+        <v>1.5538677000000001</v>
+      </c>
+      <c r="H166">
+        <v>0.65820000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="6:8">
       <c r="F167" s="1">
         <v>1.0990783</v>
       </c>
-    </row>
-    <row r="168" spans="6:6">
+      <c r="G167">
+        <v>1.7192506000000001</v>
+      </c>
+      <c r="H167">
+        <v>1.7275403</v>
+      </c>
+    </row>
+    <row r="168" spans="6:8">
       <c r="F168" s="1">
         <v>2.0993737000000001</v>
       </c>
-    </row>
-    <row r="169" spans="6:6">
+      <c r="G168">
+        <v>1.9218808000000001</v>
+      </c>
+      <c r="H168">
+        <v>1.8540909000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="6:8">
       <c r="F169" s="1">
         <v>2.0995498000000001</v>
       </c>
-    </row>
-    <row r="170" spans="6:6">
+      <c r="G169">
+        <v>1.0376874</v>
+      </c>
+      <c r="H169">
+        <v>1.8951958</v>
+      </c>
+    </row>
+    <row r="170" spans="6:8">
       <c r="F170" s="1">
         <v>2.0996541999999998</v>
       </c>
-    </row>
-    <row r="171" spans="6:6">
+      <c r="G170">
+        <v>2.5451359</v>
+      </c>
+      <c r="H170">
+        <v>0.97288799999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="6:8">
       <c r="F171" s="1">
         <v>2.0997257</v>
       </c>
-    </row>
-    <row r="172" spans="6:6">
+      <c r="G171">
+        <v>2.7517782999999998</v>
+      </c>
+      <c r="H171">
+        <v>0.97289170000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="6:8">
       <c r="F172" s="1">
         <v>2.0997902000000002</v>
       </c>
-    </row>
-    <row r="173" spans="6:6">
+      <c r="G172">
+        <v>3.0055630999999998</v>
+      </c>
+      <c r="H172">
+        <v>2.0365025999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="6:8">
       <c r="F173" s="1">
         <v>2.3303777000000001</v>
       </c>
-    </row>
-    <row r="174" spans="6:6">
+      <c r="G173">
+        <v>1.1257748000000001</v>
+      </c>
+      <c r="H173">
+        <v>2.0684664000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="6:8">
       <c r="F174" s="1">
         <v>1.3310960999999999</v>
       </c>
-    </row>
-    <row r="175" spans="6:6">
+      <c r="G174">
+        <v>1.5406462999999999</v>
+      </c>
+      <c r="H174">
+        <v>1.1059017</v>
+      </c>
+    </row>
+    <row r="175" spans="6:8">
       <c r="F175" s="1">
         <v>2.3313005000000002</v>
       </c>
-    </row>
-    <row r="176" spans="6:6">
+      <c r="G175">
+        <v>1.6232093999999999</v>
+      </c>
+      <c r="H175">
+        <v>1.2391285999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="6:8">
       <c r="F176" s="1">
         <v>6.3317430000000003</v>
+      </c>
+      <c r="G176">
+        <v>2.2746662999999998</v>
+      </c>
+      <c r="H176">
+        <v>1.3412809000000001</v>
       </c>
     </row>
     <row r="177" spans="6:6">
@@ -14122,6 +17446,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/GenAICreateQuestionsFromParagraphs/SampleResults/macOS/sampleDurationResults.xlsx
+++ b/GenAICreateQuestionsFromParagraphs/SampleResults/macOS/sampleDurationResults.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart/Desktop/Screenshots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bczernicki\source\repos\GenAICreateQuestionsFromParagraphs\GenAICreateQuestionsFromParagraphs\SampleResults\macOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{513469F5-F147-BE4B-BA79-C8AFB95DD4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B177C7B-412E-488F-9B60-7D4ECC988C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25640" windowHeight="15560" xr2:uid="{3D69E190-3EF2-754E-8869-F8FDD486E5BF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" activeTab="3" xr2:uid="{3D69E190-3EF2-754E-8869-F8FDD486E5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="2" r:id="rId1"/>
     <sheet name="GPT-4" sheetId="6" r:id="rId2"/>
     <sheet name="GPT3-5" sheetId="7" r:id="rId3"/>
-    <sheet name="Data" sheetId="1" r:id="rId4"/>
+    <sheet name="GPT-4o" sheetId="8" r:id="rId4"/>
+    <sheet name="Data" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
   <si>
     <t>gpt-35-turbo-1106</t>
   </si>
@@ -131,10 +132,19 @@
     <t>125-PTU-GPT-4o-2024-05-13</t>
   </si>
   <si>
-    <t>Mode</t>
+    <t>125-PTU50-GPT-4o-2024-05-13</t>
   </si>
   <si>
-    <t>125-PTU50-GPT-4o-2024-05-13</t>
+    <t>payg-gpt-4o-2024-05-13</t>
+  </si>
+  <si>
+    <t>ptu-gpt-4o-2024-05-13</t>
+  </si>
+  <si>
+    <t>payg-gpt-4o-2024-05-13-round</t>
+  </si>
+  <si>
+    <t>ptu-gpt-4o-2024-05-13-round</t>
   </si>
 </sst>
 </file>
@@ -404,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,6 +457,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3919,6 +3930,3232 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GPT-4o'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>payg-gpt-4o-2024-05-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GPT-4o'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GPT-4o'!$F$2:$F$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="175"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DE5-4D5A-9740-6A9A70BCDE79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="1293074912"/>
+        <c:axId val="1293074432"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'GPT3-5'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Bin</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'GPT-4o'!$A$2:$A$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>3.7</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4.2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4.3</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4.4000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4.5999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>4.7</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>4.8</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>4.9000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>5.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>5.2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>5.3</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>5.4</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>5.6</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>5.7</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>5.8</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>5.9</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>6.1</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>6.2</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>6.3</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>6.4</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>6.6</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>6.7</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>6.8</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>6.9</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>7.1</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>7.2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>7.3</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>7.4</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>7.6</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>7.7</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>7.8</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>7.9</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>8.1</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>8.1999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>8.3000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>8.4</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>8.6</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>8.6999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>8.8000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>8.9</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>9.1</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>9.1999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>9.3000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>9.4</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>9.6</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>9.6999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>9.8000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>9.9</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'GPT3-5'!$A$2:$A$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="36"/>
+                      <c:pt idx="0" formatCode="0.0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3DE5-4D5A-9740-6A9A70BCDE79}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1293074912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293074432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1293074432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293074912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GPT-4o'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ptu-gpt-4o-2024-05-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GPT-4o'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GPT-4o'!$H$2:$H$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="175"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88FB-4BA0-B8C1-E16882B05B55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="1293074912"/>
+        <c:axId val="1293074432"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'GPT3-5'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Bin</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'GPT-4o'!$A$2:$A$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>3.7</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4.2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4.3</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4.4000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4.5999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>4.7</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>4.8</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>4.9000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>5.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>5.2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>5.3</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>5.4</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>5.6</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>5.7</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>5.8</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>5.9</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>6.1</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>6.2</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>6.3</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>6.4</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>6.6</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>6.7</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>6.8</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>6.9</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>7.1</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>7.2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>7.3</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>7.4</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>7.6</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>7.7</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>7.8</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>7.9</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>8.1</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>8.1999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>8.3000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>8.4</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>8.6</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>8.6999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>8.8000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>8.9</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>9.1</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>9.1999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>9.3000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>9.4</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>9.6</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>9.6999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>9.8000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>9.9</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'GPT3-5'!$A$2:$A$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="36"/>
+                      <c:pt idx="0" formatCode="0.0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-88FB-4BA0-B8C1-E16882B05B55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1293074912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293074432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1293074432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293074912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4873,7 +8110,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6400,6 +9637,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8451,6 +11768,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8657,6 +12980,87 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>6802</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A28109-AF70-4031-BE53-94C0CC003433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>170090</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C1F672-D195-4B49-AF35-9632E76FC976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>112714</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>92074</xdr:rowOff>
@@ -8693,13 +13097,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>109536</xdr:colOff>
+      <xdr:colOff>109535</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>102393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -9068,28 +13472,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202A859E-2170-114F-A3C6-EFC3AA41D3AC}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.3125" customWidth="1"/>
+    <col min="4" max="4" width="13.3125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="7" max="8" width="18.1875" customWidth="1"/>
+    <col min="9" max="9" width="19.1875" customWidth="1"/>
+    <col min="11" max="11" width="19.8125" customWidth="1"/>
+    <col min="12" max="12" width="15.6875" customWidth="1"/>
+    <col min="14" max="14" width="18.8125" customWidth="1"/>
+    <col min="15" max="15" width="19.1875" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="17.83203125" customWidth="1"/>
+    <col min="18" max="18" width="17.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9111,7 +13515,7 @@
       </c>
       <c r="L1" s="6"/>
       <c r="N1" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="25"/>
@@ -9612,7 +14016,7 @@
         <v>283.52969210000003</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17" thickBot="1">
+    <row r="14" spans="1:18" ht="16.149999999999999" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -9666,14 +14070,14 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="5" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.3125" customWidth="1"/>
+    <col min="4" max="5" width="30.6875" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11015,20 +15419,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1479317-8793-42EB-8112-8D25209E1C4C}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6875" customWidth="1"/>
+    <col min="5" max="5" width="29.1875" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" customWidth="1"/>
     <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13063,23 +17467,4580 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE03A18-C581-4998-96F2-750144AF3250}">
+  <dimension ref="A1:H176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="27.3125" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="29.1875" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" customWidth="1"/>
+    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.3765270000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.56886139999999996</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(B2,1)</f>
+        <v>1.4</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(C2, 1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(D:D,A2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF(E:E, A2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>1.3785917000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.6242586</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">ROUND(B3,1)</f>
+        <v>1.4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">ROUND(C3, 1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">COUNTIF(D:D,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="3">COUNTIF(E:E, A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>1.3790837</v>
+      </c>
+      <c r="C4">
+        <v>0.63021479999999996</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>1.5029432</v>
+      </c>
+      <c r="C5">
+        <v>0.63066789999999995</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <v>0.50464889999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.71267420000000004</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>1.5070545</v>
+      </c>
+      <c r="C7">
+        <v>0.78606659999999995</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <v>1.5793919999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.78660969999999997</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>0.58457479999999995</v>
+      </c>
+      <c r="C9">
+        <v>0.78727749999999996</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
+        <v>1.6586856000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.79150359999999997</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>0.74739270000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.79210069999999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1.7479613000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.86901479999999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13">
+        <v>0.82231540000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.94403170000000003</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="B14">
+        <v>1.8271697</v>
+      </c>
+      <c r="C14">
+        <v>0.94491159999999996</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="B15">
+        <v>0.90660649999999998</v>
+      </c>
+      <c r="C15">
+        <v>0.95331069999999996</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B16">
+        <v>0.97924920000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.95394369999999995</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B17">
+        <v>0.98470679999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.95439790000000002</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="B18">
+        <v>1.9851825000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.95487089999999997</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B19">
+        <v>1.9856654</v>
+      </c>
+      <c r="C19">
+        <v>1.0284876000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="B20">
+        <v>1.0906096999999999</v>
+      </c>
+      <c r="C20">
+        <v>1.0288169</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="B21">
+        <v>1.0910344000000001</v>
+      </c>
+      <c r="C21">
+        <v>1.1007670000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1.0977481</v>
+      </c>
+      <c r="C22">
+        <v>1.1048104000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="B23">
+        <v>1.0983293000000001</v>
+      </c>
+      <c r="C23">
+        <v>1.1060447</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B24">
+        <v>2.0989148000000002</v>
+      </c>
+      <c r="C24">
+        <v>1.1812585</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B25">
+        <v>1.2121857</v>
+      </c>
+      <c r="C25">
+        <v>1.1832347000000001</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="B26">
+        <v>1.2126117999999999</v>
+      </c>
+      <c r="C26">
+        <v>1.1884275</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B27">
+        <v>1.2133119000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.2914222</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="B28">
+        <v>1.2138367000000001</v>
+      </c>
+      <c r="C28">
+        <v>1.3002355000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="B29">
+        <v>1.2142900000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.30314659999999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="B30">
+        <v>1.3236403000000001</v>
+      </c>
+      <c r="C30">
+        <v>1.3034895</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="B31">
+        <v>1.4233344000000001</v>
+      </c>
+      <c r="C31">
+        <v>1.3038198999999999</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>2.4342521000000001</v>
+      </c>
+      <c r="C32">
+        <v>1.4157934999999999</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="B33">
+        <v>1.4346532999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.4165584</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B34">
+        <v>2.4353937999999999</v>
+      </c>
+      <c r="C34">
+        <v>1.4189311</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="B35">
+        <v>1.4360018999999999</v>
+      </c>
+      <c r="C35">
+        <v>1.4193381</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="B36">
+        <v>0.43638680000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.42077199999999998</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="B37">
+        <v>1.5418924000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.5153548</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="B38">
+        <v>2.6424934000000002</v>
+      </c>
+      <c r="C38">
+        <v>1.5162224</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="B39">
+        <v>1.6479151999999999</v>
+      </c>
+      <c r="C39">
+        <v>1.5174574000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="B40">
+        <v>0.65076310000000004</v>
+      </c>
+      <c r="C40">
+        <v>0.51823920000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="B41">
+        <v>1.6511699</v>
+      </c>
+      <c r="C41">
+        <v>1.5207185000000001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>0.65199580000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.52112069999999999</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B43">
+        <v>1.6534808000000001</v>
+      </c>
+      <c r="C43">
+        <v>1.6265482</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="B44">
+        <v>1.7579545000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.62707449999999998</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="B45">
+        <v>0.87493290000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.63160329999999998</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B46">
+        <v>0.8758184</v>
+      </c>
+      <c r="C46">
+        <v>0.63198200000000004</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="B47">
+        <v>0.87677760000000005</v>
+      </c>
+      <c r="C47">
+        <v>0.63255859999999997</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B48">
+        <v>1.993644</v>
+      </c>
+      <c r="C48">
+        <v>1.7380126</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="B49">
+        <v>2.9939819999999999</v>
+      </c>
+      <c r="C49">
+        <v>1.7408735</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="B50">
+        <v>0.9986621</v>
+      </c>
+      <c r="C50">
+        <v>0.74318580000000001</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B51">
+        <v>0.99891269999999999</v>
+      </c>
+      <c r="C51">
+        <v>0.74342739999999996</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="8">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>1.1210941999999999</v>
+      </c>
+      <c r="C52">
+        <v>0.74621550000000003</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B53">
+        <v>1.1214283</v>
+      </c>
+      <c r="C53">
+        <v>0.7465427</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="B54">
+        <v>2.1259678000000002</v>
+      </c>
+      <c r="C54">
+        <v>0.85759350000000001</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="B55">
+        <v>1.1261843</v>
+      </c>
+      <c r="C55">
+        <v>0.85800430000000005</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="B56">
+        <v>1.1264528</v>
+      </c>
+      <c r="C56">
+        <v>0.8584328</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="B57">
+        <v>1.1268171</v>
+      </c>
+      <c r="C57">
+        <v>0.85886249999999997</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="B58">
+        <v>1.1330521</v>
+      </c>
+      <c r="C58">
+        <v>0.85933230000000005</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="B59">
+        <v>3.2610983999999998</v>
+      </c>
+      <c r="C59">
+        <v>0.86010620000000004</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="B60">
+        <v>1.2656927</v>
+      </c>
+      <c r="C60">
+        <v>0.86085970000000001</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="B61">
+        <v>1.2666599000000001</v>
+      </c>
+      <c r="C61">
+        <v>1.8613335</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="8">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>1.2671687</v>
+      </c>
+      <c r="C62">
+        <v>1.9658804999999999</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="B63">
+        <v>1.2674308000000001</v>
+      </c>
+      <c r="C63">
+        <v>1.0749801999999999</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="B64">
+        <v>1.2677665</v>
+      </c>
+      <c r="C64">
+        <v>1.0753404</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="B65">
+        <v>1.2680168999999999</v>
+      </c>
+      <c r="C65">
+        <v>1.0756981999999999</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="B66">
+        <v>2.3909429000000002</v>
+      </c>
+      <c r="C66">
+        <v>1.0760395</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="B67">
+        <v>1.3911659999999999</v>
+      </c>
+      <c r="C67">
+        <v>1.0857671</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="4">ROUND(B67,1)</f>
+        <v>1.4</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="5">ROUND(C67, 1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="6">COUNTIF(D:D,A67)</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="7">COUNTIF(E:E, A67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="B68">
+        <v>1.3913682000000001</v>
+      </c>
+      <c r="C68">
+        <v>1.0862263000000001</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="B69">
+        <v>1.3918666</v>
+      </c>
+      <c r="C69">
+        <v>1.0866038</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="B70">
+        <v>1.3922288</v>
+      </c>
+      <c r="C70">
+        <v>1.086948</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="B71">
+        <v>1.3924666000000001</v>
+      </c>
+      <c r="C71">
+        <v>1.0872721999999999</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="8">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>3.5191460000000001</v>
+      </c>
+      <c r="C72">
+        <v>1.2155511000000001</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="B73">
+        <v>1.5273604000000001</v>
+      </c>
+      <c r="C73">
+        <v>1.2159622000000001</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="B74">
+        <v>1.5278562</v>
+      </c>
+      <c r="C74">
+        <v>1.2166090000000001</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="B75">
+        <v>1.5282062999999999</v>
+      </c>
+      <c r="C75">
+        <v>2.2206047</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="B76">
+        <v>1.6453392</v>
+      </c>
+      <c r="C76">
+        <v>1.2215651999999999</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="B77">
+        <v>1.6520131</v>
+      </c>
+      <c r="C77">
+        <v>1.2218188000000001</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>1.7</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="B78">
+        <v>1.6522969000000001</v>
+      </c>
+      <c r="C78">
+        <v>1.2221283999999999</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>1.7</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="B79">
+        <v>1.6526864000000001</v>
+      </c>
+      <c r="C79">
+        <v>1.2224556</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>1.7</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="B80">
+        <v>1.6534021000000001</v>
+      </c>
+      <c r="C80">
+        <v>1.2228516</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>1.7</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="B81">
+        <v>0.65369319999999997</v>
+      </c>
+      <c r="C81">
+        <v>1.3425852</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="8">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>0.65413049999999995</v>
+      </c>
+      <c r="C82">
+        <v>1.3428785000000001</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="B83">
+        <v>1.6546329</v>
+      </c>
+      <c r="C83">
+        <v>1.3431632</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>1.7</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B84">
+        <v>0.77558269999999996</v>
+      </c>
+      <c r="C84">
+        <v>1.3478706</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B85">
+        <v>0.77779359999999997</v>
+      </c>
+      <c r="C85">
+        <v>1.3481194000000001</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="B86">
+        <v>0.77827729999999995</v>
+      </c>
+      <c r="C86">
+        <v>0.4723176</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="B87">
+        <v>1.7787310000000001</v>
+      </c>
+      <c r="C87">
+        <v>1.4727665999999999</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="B88">
+        <v>0.77972209999999997</v>
+      </c>
+      <c r="C88">
+        <v>1.4765505999999999</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B89">
+        <v>0.78036760000000005</v>
+      </c>
+      <c r="C89">
+        <v>0.4799638</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B90">
+        <v>0.78124450000000001</v>
+      </c>
+      <c r="C90">
+        <v>0.48045009999999999</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="B91">
+        <v>1.8984873</v>
+      </c>
+      <c r="C91">
+        <v>0.48085850000000002</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>1.9</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="8">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>0.90067609999999998</v>
+      </c>
+      <c r="C92">
+        <v>0.48122150000000002</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="B93">
+        <v>1.9046985999999999</v>
+      </c>
+      <c r="C93">
+        <v>1.4815486</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>1.9</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B94">
+        <v>0.90487830000000002</v>
+      </c>
+      <c r="C94">
+        <v>1.4821195</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B95">
+        <v>0.90575629999999996</v>
+      </c>
+      <c r="C95">
+        <v>0.61214999999999997</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="B96">
+        <v>1.0606841</v>
+      </c>
+      <c r="C96">
+        <v>0.61286680000000004</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="B97">
+        <v>1.0630599999999999</v>
+      </c>
+      <c r="C97">
+        <v>1.6182243999999999</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="B98">
+        <v>1.063288</v>
+      </c>
+      <c r="C98">
+        <v>0.61847969999999997</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B99">
+        <v>2.2182346000000002</v>
+      </c>
+      <c r="C99">
+        <v>0.61876489999999995</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B100">
+        <v>2.2208342999999999</v>
+      </c>
+      <c r="C100">
+        <v>0.61903129999999995</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="B101">
+        <v>1.2223763999999999</v>
+      </c>
+      <c r="C101">
+        <v>1.6195552</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="8">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>1.2225349999999999</v>
+      </c>
+      <c r="C102">
+        <v>0.62018720000000005</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103">
+        <v>1.2227171999999999</v>
+      </c>
+      <c r="C103">
+        <v>0.74482199999999998</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104">
+        <v>1.2228627999999999</v>
+      </c>
+      <c r="C104">
+        <v>1.7454316999999999</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105">
+        <v>1.2231867000000001</v>
+      </c>
+      <c r="C105">
+        <v>0.74578339999999999</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106">
+        <v>1.2234665</v>
+      </c>
+      <c r="C106">
+        <v>0.74617330000000004</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107">
+        <v>1.37399</v>
+      </c>
+      <c r="C107">
+        <v>1.8643510000000001</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108">
+        <v>1.3783741</v>
+      </c>
+      <c r="C108">
+        <v>0.86946060000000003</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109">
+        <v>1.3788286000000001</v>
+      </c>
+      <c r="C109">
+        <v>0.86970519999999996</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110">
+        <v>1.3791987999999999</v>
+      </c>
+      <c r="C110">
+        <v>1.8699760000000001</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111">
+        <v>1.3792135999999999</v>
+      </c>
+      <c r="C111">
+        <v>0.87028399999999995</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112">
+        <v>1.3797478000000001</v>
+      </c>
+      <c r="C112">
+        <v>0.87055919999999998</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113">
+        <v>1.3797614</v>
+      </c>
+      <c r="C113">
+        <v>1.8709378000000001</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114">
+        <v>1.3798433999999999</v>
+      </c>
+      <c r="C114">
+        <v>0.87116689999999997</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115">
+        <v>1.3798937</v>
+      </c>
+      <c r="C115">
+        <v>0.88488940000000005</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116">
+        <v>1.3799509000000001</v>
+      </c>
+      <c r="C116">
+        <v>0.89246689999999995</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117">
+        <v>1.379975</v>
+      </c>
+      <c r="C117">
+        <v>0.8984761</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118">
+        <v>1.3801866</v>
+      </c>
+      <c r="C118">
+        <v>0.89961950000000002</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119">
+        <v>1.4478375000000001</v>
+      </c>
+      <c r="C119">
+        <v>0.91558459999999997</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120">
+        <v>0.46716530000000001</v>
+      </c>
+      <c r="C120">
+        <v>0.96216690000000005</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121">
+        <v>1.4718713999999999</v>
+      </c>
+      <c r="C121">
+        <v>1.9634494</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122">
+        <v>1.4944772</v>
+      </c>
+      <c r="C122">
+        <v>0.97522310000000001</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123">
+        <v>1.545617</v>
+      </c>
+      <c r="C123">
+        <v>0.97918499999999997</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124">
+        <v>1.5462578</v>
+      </c>
+      <c r="C124">
+        <v>0.98376180000000002</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125">
+        <v>1.5636713</v>
+      </c>
+      <c r="C125">
+        <v>1.9890022000000001</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126">
+        <v>1.5929802</v>
+      </c>
+      <c r="C126">
+        <v>2.0061724000000001</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127">
+        <v>1.6044252000000001</v>
+      </c>
+      <c r="C127">
+        <v>1.0348299999999999</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128">
+        <v>1.6210817</v>
+      </c>
+      <c r="C128">
+        <v>1.0500407</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129">
+        <v>1.6311944</v>
+      </c>
+      <c r="C129">
+        <v>1.1002688</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130">
+        <v>0.67174909999999999</v>
+      </c>
+      <c r="C130">
+        <v>1.1054333000000001</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131">
+        <v>1.6742427</v>
+      </c>
+      <c r="C131">
+        <v>1.1112314000000001</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D176" si="8">ROUND(B131,1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E176" si="9">ROUND(C131, 1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F176" si="10">COUNTIF(D:D,A131)</f>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H176" si="11">COUNTIF(E:E, A131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132">
+        <v>1.6949342000000001</v>
+      </c>
+      <c r="C132">
+        <v>1.1166822000000001</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="8"/>
+        <v>1.7</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133">
+        <v>1.6992803999999999</v>
+      </c>
+      <c r="C133">
+        <v>2.1199422999999999</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="8"/>
+        <v>1.7</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="9"/>
+        <v>2.1</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134">
+        <v>2.7209492000000002</v>
+      </c>
+      <c r="C134">
+        <v>1.1216629</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="8"/>
+        <v>2.7</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135">
+        <v>1.7901342</v>
+      </c>
+      <c r="C135">
+        <v>1.1277117999999999</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136">
+        <v>0.79882719999999996</v>
+      </c>
+      <c r="C136">
+        <v>1.1278424</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137">
+        <v>0.82846089999999994</v>
+      </c>
+      <c r="C137">
+        <v>1.1444761000000001</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138">
+        <v>1.8387844</v>
+      </c>
+      <c r="C138">
+        <v>1.1510815999999999</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139">
+        <v>2.3332660000000001</v>
+      </c>
+      <c r="C139">
+        <v>1.1562395999999999</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="8"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140">
+        <v>3.4142725</v>
+      </c>
+      <c r="C140">
+        <v>1.2118728999999999</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="8"/>
+        <v>3.4</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141">
+        <v>2.4482105999999999</v>
+      </c>
+      <c r="C141">
+        <v>1.2180542999999999</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142">
+        <v>2.6404040000000002</v>
+      </c>
+      <c r="C142">
+        <v>2.2276883000000001</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="8"/>
+        <v>2.6</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143">
+        <v>2.7609446000000002</v>
+      </c>
+      <c r="C143">
+        <v>1.2467398000000001</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="8"/>
+        <v>2.8</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144">
+        <v>2.8195361000000001</v>
+      </c>
+      <c r="C144">
+        <v>2.2652795000000001</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="8"/>
+        <v>2.8</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="9"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145">
+        <v>2.8347045</v>
+      </c>
+      <c r="C145">
+        <v>1.2910877000000001</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="8"/>
+        <v>2.8</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146">
+        <v>3.0335032000000002</v>
+      </c>
+      <c r="C146">
+        <v>1.3199312000000001</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147">
+        <v>3.1124094000000002</v>
+      </c>
+      <c r="C147">
+        <v>1.3387575</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="8"/>
+        <v>3.1</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148">
+        <v>2.8375050000000002</v>
+      </c>
+      <c r="C148">
+        <v>0.36692619999999998</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="8"/>
+        <v>2.8</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149">
+        <v>8.4442096000000006</v>
+      </c>
+      <c r="C149">
+        <v>1.3757695999999999</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="8"/>
+        <v>8.4</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150">
+        <v>6.7664019</v>
+      </c>
+      <c r="C150">
+        <v>0.38453090000000001</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="8"/>
+        <v>6.8</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151">
+        <v>8.8954409999999999</v>
+      </c>
+      <c r="C151">
+        <v>1.4039257999999999</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="8"/>
+        <v>8.9</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152">
+        <v>0.77045220000000003</v>
+      </c>
+      <c r="C152">
+        <v>1.4047312000000001</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153">
+        <v>1.1479961000000001</v>
+      </c>
+      <c r="C153">
+        <v>1.4123961</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154">
+        <v>1.2563732000000001</v>
+      </c>
+      <c r="C154">
+        <v>1.4171636000000001</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155">
+        <v>1.2772547999999999</v>
+      </c>
+      <c r="C155">
+        <v>1.4216868</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156">
+        <v>1.3267321999999999</v>
+      </c>
+      <c r="C156">
+        <v>1.4394313000000001</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157">
+        <v>1.3354862000000001</v>
+      </c>
+      <c r="C157">
+        <v>1.4653039000000001</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158">
+        <v>1.3493394000000001</v>
+      </c>
+      <c r="C158">
+        <v>1.4752409</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159">
+        <v>1.3854735</v>
+      </c>
+      <c r="C159">
+        <v>0.47942610000000002</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160">
+        <v>1.4054381</v>
+      </c>
+      <c r="C160">
+        <v>1.4849502000000001</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161">
+        <v>1.4479322999999999</v>
+      </c>
+      <c r="C161">
+        <v>0.52835290000000001</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162">
+        <v>1.4946402000000001</v>
+      </c>
+      <c r="C162">
+        <v>0.54966990000000004</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163">
+        <v>1.5129751</v>
+      </c>
+      <c r="C163">
+        <v>1.5630052000000001</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164">
+        <v>1.5211847000000001</v>
+      </c>
+      <c r="C164">
+        <v>1.6050454999999999</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165">
+        <v>1.5254654000000001</v>
+      </c>
+      <c r="C165">
+        <v>1.6382241</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166">
+        <v>1.5538677000000001</v>
+      </c>
+      <c r="C166">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167">
+        <v>1.7192506000000001</v>
+      </c>
+      <c r="C167">
+        <v>1.7275403</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="8"/>
+        <v>1.7</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168">
+        <v>1.9218808000000001</v>
+      </c>
+      <c r="C168">
+        <v>1.8540909000000001</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="8"/>
+        <v>1.9</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="9"/>
+        <v>1.9</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169">
+        <v>1.0376874</v>
+      </c>
+      <c r="C169">
+        <v>1.8951958</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="9"/>
+        <v>1.9</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170">
+        <v>2.5451359</v>
+      </c>
+      <c r="C170">
+        <v>0.97288799999999998</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171">
+        <v>2.7517782999999998</v>
+      </c>
+      <c r="C171">
+        <v>0.97289170000000003</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="8"/>
+        <v>2.8</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172">
+        <v>3.0055630999999998</v>
+      </c>
+      <c r="C172">
+        <v>2.0365025999999999</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8">
+      <c r="B173">
+        <v>1.1257748000000001</v>
+      </c>
+      <c r="C173">
+        <v>2.0684664000000001</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="9"/>
+        <v>2.1</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174">
+        <v>1.5406462999999999</v>
+      </c>
+      <c r="C174">
+        <v>1.1059017</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="B175">
+        <v>1.6232093999999999</v>
+      </c>
+      <c r="C175">
+        <v>1.2391285999999999</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="B176">
+        <v>2.2746662999999998</v>
+      </c>
+      <c r="C176">
+        <v>1.3412809000000001</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="8"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556B648E-E39A-9A42-8516-1E0A85B07E5E}">
   <dimension ref="A1:T401"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9:T23"/>
+    <sheetView topLeftCell="C160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.8125" customWidth="1"/>
+    <col min="5" max="5" width="18.1875" customWidth="1"/>
+    <col min="6" max="6" width="20.1875" customWidth="1"/>
+    <col min="7" max="7" width="32.1875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1">
@@ -13244,7 +22205,7 @@
         <v>0.78606659999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="17" thickBot="1">
+    <row r="8" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B8" s="1">
         <v>0.69387889999999997</v>
       </c>
@@ -13289,9 +22250,7 @@
       <c r="H9">
         <v>0.78727749999999996</v>
       </c>
-      <c r="S9" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="S9" s="23"/>
       <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:20">
@@ -13339,12 +22298,6 @@
       <c r="H11">
         <v>0.79210069999999999</v>
       </c>
-      <c r="S11" t="s">
-        <v>4</v>
-      </c>
-      <c r="T11">
-        <v>1.6201696691428573</v>
-      </c>
     </row>
     <row r="12" spans="1:20">
       <c r="B12" s="1">
@@ -13368,12 +22321,6 @@
       <c r="H12">
         <v>0.86901479999999998</v>
       </c>
-      <c r="S12" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12">
-        <v>7.9390369206651365E-2</v>
-      </c>
     </row>
     <row r="13" spans="1:20">
       <c r="B13" s="1">
@@ -13397,12 +22344,6 @@
       <c r="H13">
         <v>0.94403170000000003</v>
       </c>
-      <c r="S13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13">
-        <v>1.3913682000000001</v>
-      </c>
     </row>
     <row r="14" spans="1:20">
       <c r="B14" s="1">
@@ -13426,12 +22367,6 @@
       <c r="H14">
         <v>0.94491159999999996</v>
       </c>
-      <c r="S14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="B15" s="1">
@@ -13455,12 +22390,6 @@
       <c r="H15">
         <v>0.95331069999999996</v>
       </c>
-      <c r="S15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T15">
-        <v>1.0502358670719987</v>
-      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="B16" s="1">
@@ -13484,12 +22413,6 @@
       <c r="H16">
         <v>0.95394369999999995</v>
       </c>
-      <c r="S16" t="s">
-        <v>8</v>
-      </c>
-      <c r="T16">
-        <v>1.1029953764844727</v>
-      </c>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="1">
@@ -13513,12 +22436,6 @@
       <c r="H17">
         <v>0.95439790000000002</v>
       </c>
-      <c r="S17" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17">
-        <v>25.089702082403992</v>
-      </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="1">
@@ -13542,12 +22459,6 @@
       <c r="H18">
         <v>0.95487089999999997</v>
       </c>
-      <c r="S18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18">
-        <v>4.3146909957876725</v>
-      </c>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="1">
@@ -13571,12 +22482,6 @@
       <c r="H19">
         <v>1.0284876000000001</v>
       </c>
-      <c r="S19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19">
-        <v>8.4590542000000006</v>
-      </c>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="1">
@@ -13600,12 +22505,6 @@
       <c r="H20">
         <v>1.0288169</v>
       </c>
-      <c r="S20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20">
-        <v>0.43638680000000002</v>
-      </c>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="1">
@@ -13629,12 +22528,6 @@
       <c r="H21">
         <v>1.1007670000000001</v>
       </c>
-      <c r="S21" t="s">
-        <v>13</v>
-      </c>
-      <c r="T21">
-        <v>8.8954409999999999</v>
-      </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="1">
@@ -13658,14 +22551,8 @@
       <c r="H22">
         <v>1.1048104000000001</v>
       </c>
-      <c r="S22" t="s">
-        <v>14</v>
-      </c>
-      <c r="T22">
-        <v>283.52969210000003</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" ht="17" thickBot="1">
+    </row>
+    <row r="23" spans="2:20">
       <c r="B23" s="1">
         <v>1.1161475000000001</v>
       </c>
@@ -13687,12 +22574,7 @@
       <c r="H23">
         <v>1.1060447</v>
       </c>
-      <c r="S23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T23" s="5">
-        <v>175</v>
-      </c>
+      <c r="T23" s="26"/>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="1">
@@ -17446,6 +26328,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>